--- a/myExcels/100M.xlsx
+++ b/myExcels/100M.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\TEKLACKE 2018\ZZZ TEKLACKE 2022\02012210NN Jesus\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1812" yWindow="1956" windowWidth="34692" windowHeight="18084" activeTab="0"/>
+    <workbookView xWindow="1815" yWindow="1950" windowWidth="25440" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="proforma" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
     <sheet name="Carta de Portes" sheetId="7" r:id="rId6"/>
     <sheet name="etiquetas envio" sheetId="2" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="130">
   <si>
     <t>DENOMINACION</t>
   </si>
@@ -53,9 +48,6 @@
     <t>SUB TOTAL BASE IMPONIBLE</t>
   </si>
   <si>
-    <t>Portes Península</t>
-  </si>
-  <si>
     <t>TOTAL BASE IMPONIBLE</t>
   </si>
   <si>
@@ -149,9 +141,6 @@
     <t>FACTURA:</t>
   </si>
   <si>
-    <t>Descuento %</t>
-  </si>
-  <si>
     <t>ALBARAN ENTREGA:</t>
   </si>
   <si>
@@ -344,12 +333,6 @@
     <t>Según Proforma</t>
   </si>
   <si>
-    <t>MANO DE OBRA</t>
-  </si>
-  <si>
-    <t>Otros Varios</t>
-  </si>
-  <si>
     <t>TOTAL BASE IMPONIBLE PINTURAS</t>
   </si>
   <si>
@@ -374,27 +357,15 @@
     <t>Descripcción:</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>75m²</t>
-  </si>
-  <si>
     <t>2 MANOS EPOXY</t>
   </si>
   <si>
     <t>Catalizador 5 a 1</t>
   </si>
   <si>
-    <t>RECOGE</t>
-  </si>
-  <si>
     <t>Suelos Epoxi 3D SC</t>
   </si>
   <si>
-    <t>C/Vista el Mar número 85</t>
-  </si>
-  <si>
     <t>Torrevieja</t>
   </si>
   <si>
@@ -407,15 +378,6 @@
     <t>Jesús Jaramillo</t>
   </si>
   <si>
-    <t>Nº: 02012210NN Jesus</t>
-  </si>
-  <si>
-    <t>Fecha: 01/02/2022</t>
-  </si>
-  <si>
-    <t>rojo carta</t>
-  </si>
-  <si>
     <t>ROJO CARTA 100% Sólidos (DOS MANOS)</t>
   </si>
   <si>
@@ -428,48 +390,44 @@
     <t>KIT 12 KGS</t>
   </si>
   <si>
-    <t xml:space="preserve">Nº: 100 m2 PISCINAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFERTA VALIDA POR 10 DIAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fecha: 04/04/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AZULES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACRILICA PISCINAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PISCINAS CON ENEKRIL PISCINAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENEKRIL PISCINAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dos manos 150 grms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 MANOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIT 15 KGS</t>
+    <t>Nº: 100 m2 PISCINAS</t>
+  </si>
+  <si>
+    <t>OFERTA VALIDA POR 10 DIAS</t>
+  </si>
+  <si>
+    <t>Fecha: 04/04/2022</t>
+  </si>
+  <si>
+    <t>AZULES</t>
+  </si>
+  <si>
+    <t>ACRILICA PISCINAS</t>
+  </si>
+  <si>
+    <t>PISCINAS CON ENEKRIL PISCINAS</t>
+  </si>
+  <si>
+    <t>ENEKRIL PISCINAS</t>
+  </si>
+  <si>
+    <t>dos manos 150 grms</t>
+  </si>
+  <si>
+    <t>2 MANOS</t>
+  </si>
+  <si>
+    <t>KIT 15 KGS</t>
   </si>
   <si>
     <t xml:space="preserve"> RAL 5015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portes </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts/>
-  <fonts x14ac:knownFonts="1">
+  <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -806,7 +764,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills>
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -861,7 +819,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders>
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1068,7 +1026,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs>
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1401,7 +1359,7 @@
         <xdr:cNvPr id="1301" name="4 Imagen" descr="teclacke.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015050000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015050000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1480,7 +1438,7 @@
         <xdr:cNvPr id="7418" name="4 Imagen" descr="teclacke.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000FA1C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000FA1C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1559,7 +1517,7 @@
         <xdr:cNvPr id="3324" name="4 Imagen" descr="teclacke.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000FC0C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000FC0C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1638,7 +1596,7 @@
         <xdr:cNvPr id="4348" name="4 Imagen" descr="teclacke.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000FC100000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000FC100000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1717,7 +1675,7 @@
         <xdr:cNvPr id="5874" name="4 Imagen" descr="teclacke.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-0000F2160000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000F2160000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1791,7 +1749,7 @@
         <xdr:cNvPr id="5875" name="3 Imagen" descr="firma JNV tekLackedef2014.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-0000F3160000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000F3160000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1865,7 +1823,7 @@
         <xdr:cNvPr id="5" name="4 CuadroTexto">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1937,7 +1895,7 @@
         <xdr:cNvPr id="6647" name="4 Imagen" descr="teclacke.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-0000F7190000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000F7190000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2011,7 +1969,7 @@
         <xdr:cNvPr id="6648" name="2 Imagen" descr="firma JNV tekLackedef2014.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-0000F8190000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000F8190000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2090,7 +2048,7 @@
         <xdr:cNvPr id="2300" name="2 Imagen" descr="ANAGRAMA fondo negro  TEKLACKE 2.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-0000FC080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000FC080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2192,7 +2150,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2227,7 +2185,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2439,204 +2397,206 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="B3:J65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="B28" sqref="B28:F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="29.21875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" style="7" customWidth="1"/>
     <col min="3" max="3" width="47" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="23.5546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="11.44140625" style="7"/>
+    <col min="4" max="4" width="10.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="E3" t="s" s="23">
+    <row r="3" spans="2:10" ht="25.9" x14ac:dyDescent="0.5">
+      <c r="E3" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="E4" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="C5" s="205"/>
+      <c r="E5" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="C6" s="207" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="203" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="23.45" x14ac:dyDescent="0.45">
+      <c r="B7" s="22" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="E4" t="s" s="14">
+      <c r="C7" s="14"/>
+      <c r="E7" s="206" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="204"/>
+    </row>
+    <row r="8" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B8" s="40" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="C5" s="205"/>
-      <c r="E5" t="s" s="14">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="C6" t="s" s="207">
-        <v>131</v>
-      </c>
-      <c r="E6" t="s" s="203">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B7" t="s" s="22">
-        <v>11</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="E7" t="s" s="206">
-        <v>133</v>
-      </c>
-      <c r="F7" s="204"/>
-    </row>
-    <row r="8" spans="2:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B8" t="s" s="40">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s" s="202">
-        <v>117</v>
-      </c>
-      <c r="D8" t="s" s="40">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s" s="41">
-        <v>134</v>
+      <c r="C8" s="202" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>123</v>
       </c>
       <c r="F8" s="25"/>
       <c r="J8" s="67"/>
     </row>
     <row r="9" spans="2:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B9" t="s" s="40">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s" s="40">
-        <v>135</v>
-      </c>
-      <c r="D9" t="s" s="40">
-        <v>17</v>
+      <c r="B9" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>16</v>
       </c>
       <c r="E9" s="41"/>
       <c r="F9" s="25"/>
       <c r="J9" s="67"/>
     </row>
-    <row r="10" spans="2:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B10" t="s" s="40">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s" s="40">
-        <v>119</v>
-      </c>
-      <c r="D10" t="s" s="40">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s" s="41">
-        <v>120</v>
+    <row r="10" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>112</v>
       </c>
       <c r="F10" s="25"/>
       <c r="I10"/>
       <c r="J10" s="67"/>
     </row>
     <row r="11" spans="2:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B11" t="s" s="40">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s" s="40">
-        <v>136</v>
-      </c>
-      <c r="D11" t="s" s="40">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s" s="41">
-        <v>121</v>
+      <c r="B11" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>113</v>
       </c>
       <c r="F11" s="25"/>
       <c r="I11"/>
       <c r="J11" s="67"/>
     </row>
-    <row r="12" spans="2:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B12" t="s" s="40">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s" s="40">
-        <v>122</v>
-      </c>
-      <c r="D12" t="s" s="40">
-        <v>20</v>
+    <row r="12" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>19</v>
       </c>
       <c r="E12" s="216"/>
       <c r="F12" s="25"/>
       <c r="I12"/>
     </row>
     <row r="13" spans="2:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B13" t="s" s="40">
-        <v>16</v>
+      <c r="B13" s="40" t="s">
+        <v>15</v>
       </c>
       <c r="C13" s="217"/>
-      <c r="D13" t="s" s="217">
-        <v>21</v>
+      <c r="D13" s="217" t="s">
+        <v>20</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
       <c r="I13"/>
     </row>
-    <row r="14" spans="2:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B14" t="s" s="22">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" t="s" s="7">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="B16" t="s" s="9">
-        <v>137</v>
+    <row r="14" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B14" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B16" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="C16" s="9"/>
-      <c r="D16" t="s" s="28">
+      <c r="D16" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E16" t="s" s="29">
+      <c r="E16" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F16" t="s" s="29">
+      <c r="F16" s="29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" t="s" s="3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" t="s" s="4">
+      <c r="D17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E17" t="s" s="5">
+      <c r="E17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F17" t="s" s="6">
+      <c r="F17" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" t="s" s="215">
-        <v>114</v>
+    <row r="18" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="215" t="s">
+        <v>108</v>
       </c>
       <c r="C18" s="210"/>
       <c r="D18" s="210"/>
       <c r="E18" s="211"/>
-      <c r="F18" s="211">
+      <c r="F18" s="211" t="str">
         <f t="shared" ref="F18:F24" si="0">IF(D18&lt;&gt;"",D18*E18,"")</f>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" t="s" s="210">
-        <v>127</v>
-      </c>
-      <c r="C19" t="s" s="210">
-        <v>128</v>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="210" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="210" t="s">
+        <v>117</v>
       </c>
       <c r="D19" s="208">
         <v>2</v>
@@ -2646,27 +2606,29 @@
       </c>
       <c r="F19" s="211">
         <f t="shared" si="0"/>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" t="s" s="210">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="210" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="210" t="s">
         <v>115</v>
-      </c>
-      <c r="C20" t="s" s="210">
-        <v>126</v>
       </c>
       <c r="D20" s="208"/>
       <c r="E20" s="211"/>
-      <c r="F20" s="211">
+      <c r="F20" s="211" t="str">
         <f t="shared" si="0"/>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" t="s" s="210">
-        <v>129</v>
-      </c>
-      <c r="C21" t="s" s="210">
-        <v>128</v>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="210" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="210" t="s">
+        <v>117</v>
       </c>
       <c r="D21" s="208">
         <v>1</v>
@@ -2676,27 +2638,29 @@
       </c>
       <c r="F21" s="211">
         <f t="shared" si="0"/>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" t="s" s="210">
-        <v>138</v>
-      </c>
-      <c r="C22" t="s" s="210">
-        <v>126</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="210" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="210" t="s">
+        <v>115</v>
       </c>
       <c r="D22" s="210"/>
       <c r="E22" s="211"/>
-      <c r="F22" s="211">
+      <c r="F22" s="211" t="str">
         <f t="shared" si="0"/>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" t="s" s="212">
-        <v>139</v>
-      </c>
-      <c r="C23" t="s" s="212">
-        <v>136</v>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="212" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="212" t="s">
+        <v>125</v>
       </c>
       <c r="D23" s="208">
         <v>2</v>
@@ -2706,221 +2670,169 @@
       </c>
       <c r="F23" s="211">
         <f t="shared" si="0"/>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="212"/>
-      <c r="C24" t="s" s="212">
-        <v>140</v>
+      <c r="C24" s="212" t="s">
+        <v>129</v>
       </c>
       <c r="D24" s="210"/>
       <c r="E24" s="211"/>
-      <c r="F24" s="211">
+      <c r="F24" s="211" t="str">
         <f t="shared" si="0"/>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="212"/>
       <c r="C25" s="212"/>
       <c r="D25" s="208"/>
       <c r="E25" s="211"/>
-      <c r="F25" s="211">
+      <c r="F25" s="211" t="str">
         <f>IF(D25&lt;&gt;"",D25*E25,"")</f>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="212"/>
       <c r="C26" s="212"/>
       <c r="D26" s="210"/>
       <c r="E26" s="211"/>
-      <c r="F26" s="211">
+      <c r="F26" s="211" t="str">
         <f t="shared" ref="F26:F43" si="1">IF(D26&lt;&gt;"",D26*E26,"")</f>
+        <v/>
       </c>
       <c r="H26" s="198"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="212"/>
       <c r="C27" s="212"/>
       <c r="D27" s="208"/>
       <c r="E27" s="211"/>
-      <c r="F27" s="211">
+      <c r="F27" s="211" t="str">
         <f t="shared" si="1"/>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="212"/>
       <c r="C28" s="212"/>
       <c r="D28" s="212"/>
       <c r="E28" s="213"/>
-      <c r="F28" s="211">
-        <f t="shared" si="1"/>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F28" s="211"/>
+    </row>
+    <row r="29" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="212"/>
       <c r="C29" s="212"/>
       <c r="D29" s="209"/>
       <c r="E29" s="213"/>
-      <c r="F29" s="211">
-        <f t="shared" si="1"/>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F29" s="211"/>
+    </row>
+    <row r="30" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="212"/>
       <c r="C30" s="212"/>
       <c r="D30" s="209"/>
       <c r="E30" s="213"/>
-      <c r="F30" s="211">
-        <f t="shared" si="1"/>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F30" s="211"/>
+    </row>
+    <row r="31" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="214"/>
       <c r="C31" s="214"/>
       <c r="D31" s="208"/>
       <c r="E31" s="211"/>
-      <c r="F31" s="211">
-        <f t="shared" si="1"/>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F31" s="211"/>
+    </row>
+    <row r="32" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="214"/>
       <c r="C32" s="214"/>
       <c r="D32" s="208"/>
       <c r="E32" s="211"/>
-      <c r="F32" s="211">
-        <f t="shared" si="1"/>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F32" s="211"/>
+    </row>
+    <row r="33" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B33" s="214"/>
       <c r="C33" s="214"/>
       <c r="D33" s="208"/>
       <c r="E33" s="211"/>
-      <c r="F33" s="211">
-        <f t="shared" si="1"/>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" t="s" s="214">
-        <v>4</v>
-      </c>
+      <c r="F33" s="211"/>
+    </row>
+    <row r="34" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B34" s="214"/>
       <c r="C34" s="214"/>
       <c r="D34" s="208"/>
       <c r="E34" s="211"/>
-      <c r="F34" s="211">
-        <f t="shared" si="1"/>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" t="s" s="214">
-        <v>37</v>
-      </c>
-      <c r="C35" t="s" s="214">
-        <v>110</v>
-      </c>
-      <c r="D35" s="208">
-        <v>50</v>
-      </c>
+      <c r="F34" s="211"/>
+    </row>
+    <row r="35" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="214"/>
+      <c r="C35" s="214"/>
+      <c r="D35" s="208"/>
       <c r="E35" s="211"/>
-      <c r="F35" s="211">
-        <f t="shared" si="1"/>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" t="s" s="214">
-        <v>104</v>
-      </c>
+      <c r="F35" s="211"/>
+    </row>
+    <row r="36" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="214"/>
       <c r="C36" s="214"/>
       <c r="D36" s="208"/>
       <c r="E36" s="211"/>
-      <c r="F36" s="211">
-        <f t="shared" si="1"/>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" t="s" s="214">
-        <v>5</v>
-      </c>
-      <c r="C37" t="s" s="214">
-        <v>141</v>
-      </c>
-      <c r="D37" s="208">
-        <v>1</v>
-      </c>
-      <c r="E37" s="211">
-        <v>21</v>
-      </c>
-      <c r="F37" s="211">
-        <f t="shared" si="1"/>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" t="s" s="214">
-        <v>102</v>
-      </c>
+      <c r="F36" s="211"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="214"/>
+      <c r="C37" s="214"/>
+      <c r="D37" s="208"/>
+      <c r="E37" s="211"/>
+      <c r="F37" s="211"/>
+    </row>
+    <row r="38" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B38" s="214"/>
       <c r="C38" s="214"/>
       <c r="D38" s="208"/>
       <c r="E38" s="211"/>
-      <c r="F38" s="211">
-        <f t="shared" si="1"/>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" t="s" s="214">
-        <v>103</v>
-      </c>
+      <c r="F38" s="211"/>
+    </row>
+    <row r="39" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B39" s="214"/>
       <c r="C39" s="214"/>
       <c r="D39" s="208"/>
       <c r="E39" s="211"/>
-      <c r="F39" s="211">
-        <f t="shared" si="1"/>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" t="s" s="214">
-        <v>6</v>
-      </c>
+      <c r="F39" s="211"/>
+    </row>
+    <row r="40" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B40" s="214"/>
       <c r="C40" s="214"/>
       <c r="D40" s="208"/>
       <c r="E40" s="211"/>
-      <c r="F40" s="211">
-        <f t="shared" si="1"/>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" t="s" s="214">
-        <v>7</v>
-      </c>
+      <c r="F40" s="211"/>
+    </row>
+    <row r="41" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B41" s="214"/>
       <c r="C41" s="214"/>
       <c r="D41" s="208"/>
       <c r="E41" s="211"/>
-      <c r="F41" s="211">
-        <f t="shared" si="1"/>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" t="s" s="214">
-        <v>8</v>
-      </c>
+      <c r="F41" s="211"/>
+    </row>
+    <row r="42" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B42" s="214"/>
       <c r="C42" s="214"/>
       <c r="D42" s="208"/>
       <c r="E42" s="211"/>
-      <c r="F42" s="211">
-        <f t="shared" si="1"/>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F42" s="211"/>
+    </row>
+    <row r="43" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B43" s="214"/>
       <c r="C43" s="214"/>
       <c r="D43" s="208"/>
       <c r="E43" s="211"/>
-      <c r="F43" s="211">
+      <c r="F43" s="211" t="str">
         <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="44" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" t="s" s="1">
+      <c r="B44" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C44" s="1"/>
@@ -2928,14 +2840,15 @@
       <c r="E44" s="33"/>
       <c r="F44" s="34">
         <f>SUM(F17:F43)</f>
+        <v>1613</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B45" t="s" s="68">
-        <v>23</v>
-      </c>
-      <c r="C45" t="s" s="199">
-        <v>110</v>
+      <c r="B45" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="199" t="s">
+        <v>106</v>
       </c>
       <c r="D45" s="201">
         <v>50</v>
@@ -2943,25 +2856,27 @@
       <c r="E45" s="69"/>
       <c r="F45" s="69">
         <f>F44*(D45/100)*(-1)</f>
+        <v>-806.5</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B46" t="s" s="45">
-        <v>104</v>
+      <c r="B46" s="45" t="s">
+        <v>100</v>
       </c>
       <c r="C46" s="45"/>
       <c r="D46" s="45"/>
       <c r="E46" s="72"/>
       <c r="F46" s="72">
         <f>SUM(F44:F45)</f>
+        <v>806.5</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B47" t="s" s="13">
+      <c r="B47" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="200" t="s">
         <v>24</v>
-      </c>
-      <c r="C47" t="s" s="200">
-        <v>25</v>
       </c>
       <c r="D47" s="13">
         <v>1</v>
@@ -2973,171 +2888,176 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B48" t="s" s="13">
-        <v>26</v>
-      </c>
-      <c r="C48" t="s" s="13">
-        <v>109</v>
+    <row r="48" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B48" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="35"/>
-      <c r="F48" s="35">
+      <c r="F48" s="35" t="str">
         <f>IF(D48&lt;&gt;"",(D48*E48),"")</f>
+        <v/>
       </c>
     </row>
     <row r="49" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B49" t="s" s="68">
-        <v>27</v>
-      </c>
-      <c r="C49" t="s" s="68">
-        <v>29</v>
+      <c r="B49" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="68" t="s">
+        <v>28</v>
       </c>
       <c r="D49" s="68"/>
       <c r="E49" s="69"/>
-      <c r="F49" s="69">
+      <c r="F49" s="69" t="str">
         <f>IF(D49&lt;&gt;"",(D49*E49),"")</f>
+        <v/>
       </c>
     </row>
     <row r="50" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B50" t="s" s="45">
-        <v>28</v>
+      <c r="B50" s="45" t="s">
+        <v>27</v>
       </c>
       <c r="C50" s="45"/>
       <c r="D50" s="45"/>
       <c r="E50" s="72"/>
       <c r="F50" s="72">
         <f>SUM(F46:F49)</f>
-      </c>
-    </row>
-    <row r="51" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B51" t="s" s="13">
-        <v>7</v>
+        <v>806.5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B51" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="35"/>
       <c r="F51" s="35">
         <f>F50*0.21</f>
-      </c>
-    </row>
-    <row r="52" spans="2:6" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="B52" t="s" s="46">
-        <v>30</v>
+        <v>169.36499999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B52" s="46" t="s">
+        <v>29</v>
       </c>
       <c r="C52" s="46"/>
       <c r="D52" s="46"/>
       <c r="E52" s="47"/>
       <c r="F52" s="47">
         <f>SUM(F50:F51)</f>
-      </c>
-    </row>
-    <row r="53" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" t="s" s="7">
+        <v>975.86500000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F53" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F53" t="s" s="11">
+    </row>
+    <row r="54" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="54" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" t="s" s="7">
+      <c r="F54" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F54" t="s" s="11">
+    </row>
+    <row r="55" spans="2:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B55" s="22" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="55" spans="2:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B55" t="s" s="22">
-        <v>35</v>
-      </c>
-      <c r="F55" t="s" s="11">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57" t="s" s="18">
+      <c r="F55" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="18" t="s">
         <v>24</v>
-      </c>
-      <c r="C57" t="s" s="18">
-        <v>25</v>
       </c>
       <c r="D57" s="18"/>
       <c r="E57" s="19"/>
       <c r="F57" s="19"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" t="s" s="18">
-        <v>26</v>
-      </c>
-      <c r="C58" t="s" s="20">
-        <v>109</v>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>105</v>
       </c>
       <c r="D58" s="20"/>
       <c r="E58" s="21"/>
       <c r="F58" s="19"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B59" t="s" s="18">
-        <v>27</v>
-      </c>
-      <c r="C59" t="s" s="18">
-        <v>29</v>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="D59" s="18"/>
       <c r="E59" s="19"/>
       <c r="F59" s="19"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B60" t="s" s="16">
-        <v>28</v>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="C60" s="43"/>
       <c r="D60" s="16"/>
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
     </row>
-    <row r="61" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B62" t="s" s="36">
-        <v>30</v>
+    <row r="61" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B62" s="36" t="s">
+        <v>29</v>
       </c>
       <c r="C62"/>
       <c r="D62"/>
     </row>
-    <row r="63" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" t="s" s="37">
-        <v>31</v>
+    <row r="63" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="37" t="s">
+        <v>30</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="12"/>
       <c r="E63" s="38"/>
-      <c r="F63" t="s" s="39">
+      <c r="F63" s="39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="37" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" t="s" s="37">
-        <v>33</v>
       </c>
       <c r="C64" s="37"/>
       <c r="D64" s="12"/>
       <c r="E64" s="38"/>
-      <c r="F64" t="s" s="39">
+      <c r="F64" s="39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
-        <v>35</v>
       </c>
       <c r="C65" s="37"/>
       <c r="D65" s="12"/>
       <c r="E65" s="38"/>
-      <c r="F65" t="s" s="75">
-        <v>108</v>
+      <c r="F65" s="75" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3149,202 +3069,224 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr/>
+  <dimension ref="B4:N56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="37.109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="23.5546875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" style="11" customWidth="1"/>
     <col min="6" max="6" width="13" style="11" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" style="7" customWidth="1"/>
-    <col min="8" max="9" width="11.44140625" style="7"/>
-    <col min="10" max="10" width="18.44140625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="31.5546875" style="7" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="20.44140625" style="7" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="7"/>
+    <col min="7" max="7" width="6.85546875" style="7" customWidth="1"/>
+    <col min="8" max="9" width="11.42578125" style="7"/>
+    <col min="10" max="10" width="18.42578125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="31.5703125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" style="7" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="E4" t="s" s="23">
+    <row r="4" spans="2:14" ht="25.9" x14ac:dyDescent="0.5">
+      <c r="E4" s="23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="21" x14ac:dyDescent="0.4">
+      <c r="E5" s="14" t="str">
+        <f>proforma!E4</f>
+        <v>FACTURA PROFORMA:</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E6" s="14" t="str">
+        <f>proforma!E5</f>
+        <v>Nº: 100 m2 PISCINAS</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J7" s="63" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" ht="21" x14ac:dyDescent="0.4">
-      <c r="E5" s="14">
-        <f>proforma!E4</f>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E6" s="14">
-        <f>proforma!E5</f>
-      </c>
-    </row>
-    <row r="7" spans="2:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J7" t="s" s="63">
-        <v>98</v>
       </c>
       <c r="K7" s="64"/>
       <c r="L7" s="64"/>
       <c r="M7" s="64"/>
       <c r="N7" s="65"/>
     </row>
-    <row r="8" spans="2:14" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B8" t="s" s="22">
-        <v>11</v>
+    <row r="8" spans="2:14" ht="23.45" x14ac:dyDescent="0.45">
+      <c r="B8" s="22" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="14"/>
-      <c r="J8" t="s" s="60">
-        <v>51</v>
+      <c r="J8" s="60" t="s">
+        <v>49</v>
       </c>
       <c r="K8" s="61"/>
       <c r="M8" s="11"/>
       <c r="N8" s="62"/>
     </row>
     <row r="9" spans="2:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="B9" t="s" s="24">
+      <c r="B9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="24" t="str">
+        <f>IF(proforma!C8&lt;&gt;"",(proforma!C8),"")</f>
+        <v>Suelos Epoxi 3D SC</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="41" t="str">
+        <f>IF(proforma!E8&lt;&gt;"",(proforma!E8),"")</f>
+        <v>ACRILICA PISCINAS</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="J9" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="48" t="str">
+        <f>IF(proforma!C8&lt;&gt;"",(proforma!C8),"")</f>
+        <v>Suelos Epoxi 3D SC</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="41" t="str">
+        <f>IF(proforma!E8&lt;&gt;"",(proforma!E8),"")</f>
+        <v>ACRILICA PISCINAS</v>
+      </c>
+      <c r="N9" s="50"/>
+    </row>
+    <row r="10" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="24" t="str">
+        <f>IF(proforma!C9&lt;&gt;"",(proforma!C9),"")</f>
+        <v>PISCINAS CON ENEKRIL PISCINAS</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="41" t="str">
+        <f>IF(proforma!E9&lt;&gt;"",(proforma!E9),"")</f>
+        <v/>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="J10" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="48" t="str">
+        <f>IF(proforma!C9&lt;&gt;"",(proforma!C9),"")</f>
+        <v>PISCINAS CON ENEKRIL PISCINAS</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="41" t="str">
+        <f>IF(proforma!E9&lt;&gt;"",(proforma!E9),"")</f>
+        <v/>
+      </c>
+      <c r="N10" s="50"/>
+    </row>
+    <row r="11" spans="2:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="B11" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="24">
-        <f>IF(proforma!C8&lt;&gt;"",(proforma!C8),"")</f>
-      </c>
-      <c r="D9" t="s" s="24">
-        <v>17</v>
-      </c>
-      <c r="E9" s="41">
-        <f>IF(proforma!E8&lt;&gt;"",(proforma!E8),"")</f>
-      </c>
-      <c r="F9" s="25"/>
-      <c r="J9" t="s" s="49">
+      <c r="C11" s="24" t="str">
+        <f>IF(proforma!C10&lt;&gt;"",(proforma!C10),"")</f>
+        <v>Torrevieja</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="41" t="str">
+        <f>IF(proforma!E10&lt;&gt;"",(proforma!E10),"")</f>
+        <v>Alicante</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="J11" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="48">
-        <f>IF(proforma!C8&lt;&gt;"",(proforma!C8),"")</f>
-      </c>
-      <c r="L9" t="s" s="24">
-        <v>17</v>
-      </c>
-      <c r="M9" s="41">
-        <f>IF(proforma!E8&lt;&gt;"",(proforma!E8),"")</f>
-      </c>
-      <c r="N9" s="50"/>
-    </row>
-    <row r="10" spans="2:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="B10" t="s" s="24">
-        <v>12</v>
-      </c>
-      <c r="C10" s="24">
-        <f>IF(proforma!C9&lt;&gt;"",(proforma!C9),"")</f>
-      </c>
-      <c r="D10" t="s" s="24">
+      <c r="K11" s="48" t="str">
+        <f>IF(proforma!C10&lt;&gt;"",(proforma!C10),"")</f>
+        <v>Torrevieja</v>
+      </c>
+      <c r="L11" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="41">
-        <f>IF(proforma!E9&lt;&gt;"",(proforma!E9),"")</f>
-      </c>
-      <c r="F10" s="25"/>
-      <c r="J10" t="s" s="49">
-        <v>12</v>
-      </c>
-      <c r="K10" s="48">
-        <f>IF(proforma!C9&lt;&gt;"",(proforma!C9),"")</f>
-      </c>
-      <c r="L10" t="s" s="24">
-        <v>18</v>
-      </c>
-      <c r="M10" s="41">
-        <f>IF(proforma!E9&lt;&gt;"",(proforma!E9),"")</f>
-      </c>
-      <c r="N10" s="50"/>
-    </row>
-    <row r="11" spans="2:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="B11" t="s" s="24">
+      <c r="M11" s="41" t="str">
+        <f>IF(proforma!E10&lt;&gt;"",(proforma!E10),"")</f>
+        <v>Alicante</v>
+      </c>
+      <c r="N11" s="50"/>
+    </row>
+    <row r="12" spans="2:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="B12" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="24">
-        <f>IF(proforma!C10&lt;&gt;"",(proforma!C10),"")</f>
-      </c>
-      <c r="D11" t="s" s="24">
+      <c r="C12" s="24" t="str">
+        <f>IF(proforma!C11&lt;&gt;"",(proforma!C11),"")</f>
+        <v>ENEKRIL PISCINAS</v>
+      </c>
+      <c r="D12" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="41">
-        <f>IF(proforma!E10&lt;&gt;"",(proforma!E10),"")</f>
-      </c>
-      <c r="F11" s="25"/>
-      <c r="J11" t="s" s="49">
+      <c r="E12" s="41" t="str">
+        <f>IF(proforma!E11&lt;&gt;"",(proforma!E11),"")</f>
+        <v>627 69 68 58</v>
+      </c>
+      <c r="F12" s="25"/>
+      <c r="J12" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="48">
-        <f>IF(proforma!C10&lt;&gt;"",(proforma!C10),"")</f>
-      </c>
-      <c r="L11" t="s" s="24">
+      <c r="K12" s="48" t="str">
+        <f>IF(proforma!C11&lt;&gt;"",(proforma!C11),"")</f>
+        <v>ENEKRIL PISCINAS</v>
+      </c>
+      <c r="L12" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="M11" s="41">
-        <f>IF(proforma!E10&lt;&gt;"",(proforma!E10),"")</f>
-      </c>
-      <c r="N11" s="50"/>
-    </row>
-    <row r="12" spans="2:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="B12" t="s" s="24">
+      <c r="M12" s="41" t="str">
+        <f>IF(proforma!E11&lt;&gt;"",(proforma!E11),"")</f>
+        <v>627 69 68 58</v>
+      </c>
+      <c r="N12" s="50"/>
+    </row>
+    <row r="13" spans="2:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="B13" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="24">
-        <f>IF(proforma!C11&lt;&gt;"",(proforma!C11),"")</f>
-      </c>
-      <c r="D12" t="s" s="24">
+      <c r="C13" s="24" t="str">
+        <f>IF(proforma!C12&lt;&gt;"",(proforma!C12),"")</f>
+        <v>Jesús Jaramillo</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="41">
-        <f>IF(proforma!E11&lt;&gt;"",(proforma!E11),"")</f>
-      </c>
-      <c r="F12" s="25"/>
-      <c r="J12" t="s" s="49">
+      <c r="E13" s="41" t="str">
+        <f>IF(proforma!E12&lt;&gt;"",(proforma!E12),"")</f>
+        <v/>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="J13" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="48">
-        <f>IF(proforma!C11&lt;&gt;"",(proforma!C11),"")</f>
-      </c>
-      <c r="L12" t="s" s="24">
+      <c r="K13" s="48" t="str">
+        <f>IF(proforma!C12&lt;&gt;"",(proforma!C12),"")</f>
+        <v>Jesús Jaramillo</v>
+      </c>
+      <c r="L13" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="41">
-        <f>IF(proforma!E11&lt;&gt;"",(proforma!E11),"")</f>
-      </c>
-      <c r="N12" s="50"/>
-    </row>
-    <row r="13" spans="2:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="B13" t="s" s="24">
-        <v>16</v>
-      </c>
-      <c r="C13" s="24">
-        <f>IF(proforma!C12&lt;&gt;"",(proforma!C12),"")</f>
-      </c>
-      <c r="D13" t="s" s="24">
-        <v>21</v>
-      </c>
-      <c r="E13" s="41">
+      <c r="M13" s="53" t="str">
         <f>IF(proforma!E12&lt;&gt;"",(proforma!E12),"")</f>
-      </c>
-      <c r="F13" s="25"/>
-      <c r="J13" t="s" s="51">
-        <v>16</v>
-      </c>
-      <c r="K13" s="48">
-        <f>IF(proforma!C12&lt;&gt;"",(proforma!C12),"")</f>
-      </c>
-      <c r="L13" t="s" s="52">
-        <v>21</v>
-      </c>
-      <c r="M13" s="53">
-        <f>IF(proforma!E12&lt;&gt;"",(proforma!E12),"")</f>
+        <v/>
       </c>
       <c r="N13" s="54"/>
     </row>
@@ -3352,536 +3294,642 @@
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
-      <c r="E14" s="42">
+      <c r="E14" s="42" t="str">
         <f>IF(proforma!E13&lt;&gt;"",(proforma!E13),"")</f>
+        <v/>
       </c>
       <c r="F14" s="27"/>
-      <c r="J14" t="s" s="58">
-        <v>99</v>
+      <c r="J14" s="58" t="s">
+        <v>97</v>
       </c>
       <c r="K14" s="59"/>
       <c r="L14" s="57"/>
       <c r="M14" s="57"/>
       <c r="N14" s="57"/>
     </row>
-    <row r="15" spans="2:14" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B15" t="s" s="22">
-        <v>22</v>
+    <row r="15" spans="2:14" ht="23.45" x14ac:dyDescent="0.45">
+      <c r="B15" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="E15" s="15"/>
-      <c r="J15" t="s" s="55">
-        <v>94</v>
+      <c r="J15" s="55" t="s">
+        <v>92</v>
       </c>
       <c r="K15" s="55"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="J16" t="s" s="55">
-        <v>95</v>
+    <row r="16" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J16" s="55" t="s">
+        <v>93</v>
       </c>
       <c r="K16" s="55"/>
     </row>
-    <row r="17" spans="2:11" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="B17" t="s" s="9">
+    <row r="17" spans="2:11" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B17" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="9"/>
-      <c r="D17" t="s" s="28">
+      <c r="D17" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E17" t="s" s="29">
+      <c r="E17" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F17" t="s" s="29">
+      <c r="F17" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="J17" t="s" s="55">
-        <v>39</v>
+      <c r="J17" s="55" t="s">
+        <v>37</v>
       </c>
       <c r="K17" s="56"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="6">
+      <c r="F18" s="6" t="str">
         <f>IF(D18&lt;&gt;"",D18*E18,"")</f>
-      </c>
-      <c r="J18" t="s" s="55">
-        <v>97</v>
+        <v/>
+      </c>
+      <c r="J18" s="55" t="s">
+        <v>95</v>
       </c>
       <c r="K18" s="55"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="30">
+    <row r="19" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="30" t="str">
         <f>IF(proforma!B18&lt;&gt;"",(proforma!B18),"")</f>
-      </c>
-      <c r="C19" s="30">
+        <v>2 MANOS EPOXY</v>
+      </c>
+      <c r="C19" s="30" t="str">
         <f>IF(proforma!C18&lt;&gt;"",(proforma!C18),"")</f>
-      </c>
-      <c r="D19" s="31">
+        <v/>
+      </c>
+      <c r="D19" s="31" t="str">
         <f>IF(proforma!D18&lt;&gt;"",(proforma!D18),"")</f>
-      </c>
-      <c r="E19" s="8">
+        <v/>
+      </c>
+      <c r="E19" s="8" t="str">
         <f>IF(proforma!E18&lt;&gt;"",(proforma!E18),"")</f>
-      </c>
-      <c r="F19" s="8">
+        <v/>
+      </c>
+      <c r="F19" s="8" t="str">
         <f>IF(D19&lt;&gt;"",D19*E19,"")</f>
-      </c>
-      <c r="J19" t="s" s="55">
-        <v>100</v>
-      </c>
-      <c r="K19" t="s" s="66">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="30">
+        <v/>
+      </c>
+      <c r="J19" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="K19" s="66" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="30" t="str">
         <f>IF(proforma!B19&lt;&gt;"",(proforma!B19),"")</f>
-      </c>
-      <c r="C20" s="30">
+        <v>KIT 30 KGS</v>
+      </c>
+      <c r="C20" s="30" t="str">
         <f>IF(proforma!C19&lt;&gt;"",(proforma!C19),"")</f>
+        <v>EPOXI AMX</v>
       </c>
       <c r="D20" s="31">
         <f>IF(proforma!D19&lt;&gt;"",(proforma!D19),"")</f>
+        <v>2</v>
       </c>
       <c r="E20" s="8">
         <f>IF(proforma!E19&lt;&gt;"",(proforma!E19),"")</f>
+        <v>484</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" ref="F20:F33" si="0">IF(D20&lt;&gt;"",D20*E20,"")</f>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="30">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="30" t="str">
         <f>IF(proforma!B20&lt;&gt;"",(proforma!B20),"")</f>
-      </c>
-      <c r="C21" s="30">
+        <v>Catalizador 5 a 1</v>
+      </c>
+      <c r="C21" s="30" t="str">
         <f>IF(proforma!C20&lt;&gt;"",(proforma!C20),"")</f>
-      </c>
-      <c r="D21" s="31">
+        <v>ROJO CARTA 100% Sólidos (DOS MANOS)</v>
+      </c>
+      <c r="D21" s="31" t="str">
         <f>IF(proforma!D20&lt;&gt;"",(proforma!D20),"")</f>
-      </c>
-      <c r="E21" s="8">
+        <v/>
+      </c>
+      <c r="E21" s="8" t="str">
         <f>IF(proforma!E20&lt;&gt;"",(proforma!E20),"")</f>
-      </c>
-      <c r="F21" s="8">
+        <v/>
+      </c>
+      <c r="F21" s="8" t="str">
         <f t="shared" si="0"/>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="30">
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="30" t="str">
         <f>IF(proforma!B22&lt;&gt;"",(proforma!B22),"")</f>
-      </c>
-      <c r="C22" s="30">
+        <v>2 MANOS</v>
+      </c>
+      <c r="C22" s="30" t="str">
         <f>IF(proforma!C22&lt;&gt;"",(proforma!C22),"")</f>
-      </c>
-      <c r="D22" s="31">
+        <v>ROJO CARTA 100% Sólidos (DOS MANOS)</v>
+      </c>
+      <c r="D22" s="31" t="str">
         <f>IF(proforma!D22&lt;&gt;"",(proforma!D22),"")</f>
-      </c>
-      <c r="E22" s="8">
+        <v/>
+      </c>
+      <c r="E22" s="8" t="str">
         <f>IF(proforma!E22&lt;&gt;"",(proforma!E22),"")</f>
-      </c>
-      <c r="F22" s="8">
+        <v/>
+      </c>
+      <c r="F22" s="8" t="str">
         <f t="shared" si="0"/>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="30">
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="30" t="str">
         <f>IF(proforma!B23&lt;&gt;"",(proforma!B23),"")</f>
-      </c>
-      <c r="C23" s="30">
+        <v>KIT 15 KGS</v>
+      </c>
+      <c r="C23" s="30" t="str">
         <f>IF(proforma!C23&lt;&gt;"",(proforma!C23),"")</f>
+        <v>ENEKRIL PISCINAS</v>
       </c>
       <c r="D23" s="31">
         <f>IF(proforma!D23&lt;&gt;"",(proforma!D23),"")</f>
+        <v>2</v>
       </c>
       <c r="E23" s="8">
         <f>IF(proforma!E23&lt;&gt;"",(proforma!E23),"")</f>
+        <v>225</v>
       </c>
       <c r="F23" s="8">
         <f t="shared" si="0"/>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="30">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="30" t="str">
         <f>IF(proforma!B24&lt;&gt;"",(proforma!B24),"")</f>
-      </c>
-      <c r="C24" s="30">
+        <v/>
+      </c>
+      <c r="C24" s="30" t="str">
         <f>IF(proforma!C24&lt;&gt;"",(proforma!C24),"")</f>
-      </c>
-      <c r="D24" s="31">
+        <v xml:space="preserve"> RAL 5015</v>
+      </c>
+      <c r="D24" s="31" t="str">
         <f>IF(proforma!D24&lt;&gt;"",(proforma!D24),"")</f>
-      </c>
-      <c r="E24" s="8">
+        <v/>
+      </c>
+      <c r="E24" s="8" t="str">
         <f>IF(proforma!E24&lt;&gt;"",(proforma!E24),"")</f>
-      </c>
-      <c r="F24" s="8">
+        <v/>
+      </c>
+      <c r="F24" s="8" t="str">
         <f t="shared" si="0"/>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="30">
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="30" t="str">
         <f>IF(proforma!B25&lt;&gt;"",(proforma!B25),"")</f>
-      </c>
-      <c r="C25" s="30">
+        <v/>
+      </c>
+      <c r="C25" s="30" t="str">
         <f>IF(proforma!C25&lt;&gt;"",(proforma!C25),"")</f>
-      </c>
-      <c r="D25" s="31">
+        <v/>
+      </c>
+      <c r="D25" s="31" t="str">
         <f>IF(proforma!D25&lt;&gt;"",(proforma!D25),"")</f>
-      </c>
-      <c r="E25" s="8">
+        <v/>
+      </c>
+      <c r="E25" s="8" t="str">
         <f>IF(proforma!E25&lt;&gt;"",(proforma!E25),"")</f>
-      </c>
-      <c r="F25" s="8">
+        <v/>
+      </c>
+      <c r="F25" s="8" t="str">
         <f t="shared" si="0"/>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="30">
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="30" t="str">
         <f>IF(proforma!B26&lt;&gt;"",(proforma!B26),"")</f>
-      </c>
-      <c r="C26" s="30">
+        <v/>
+      </c>
+      <c r="C26" s="30" t="str">
         <f>IF(proforma!C26&lt;&gt;"",(proforma!C26),"")</f>
-      </c>
-      <c r="D26" s="31">
+        <v/>
+      </c>
+      <c r="D26" s="31" t="str">
         <f>IF(proforma!D26&lt;&gt;"",(proforma!D26),"")</f>
-      </c>
-      <c r="E26" s="8">
+        <v/>
+      </c>
+      <c r="E26" s="8" t="str">
         <f>IF(proforma!E26&lt;&gt;"",(proforma!E26),"")</f>
-      </c>
-      <c r="F26" s="8">
+        <v/>
+      </c>
+      <c r="F26" s="8" t="str">
         <f t="shared" si="0"/>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="30">
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="30" t="str">
         <f>IF(proforma!B27&lt;&gt;"",(proforma!B27),"")</f>
-      </c>
-      <c r="C27" s="30">
+        <v/>
+      </c>
+      <c r="C27" s="30" t="str">
         <f>IF(proforma!C27&lt;&gt;"",(proforma!C27),"")</f>
-      </c>
-      <c r="D27" s="31">
+        <v/>
+      </c>
+      <c r="D27" s="31" t="str">
         <f>IF(proforma!D27&lt;&gt;"",(proforma!D27),"")</f>
-      </c>
-      <c r="E27" s="8">
+        <v/>
+      </c>
+      <c r="E27" s="8" t="str">
         <f>IF(proforma!E27&lt;&gt;"",(proforma!E27),"")</f>
-      </c>
-      <c r="F27" s="8">
+        <v/>
+      </c>
+      <c r="F27" s="8" t="str">
         <f t="shared" si="0"/>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="30">
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="30" t="str">
         <f>IF(proforma!B28&lt;&gt;"",(proforma!B28),"")</f>
-      </c>
-      <c r="C28" s="30">
+        <v/>
+      </c>
+      <c r="C28" s="30" t="str">
         <f>IF(proforma!C28&lt;&gt;"",(proforma!C28),"")</f>
-      </c>
-      <c r="D28" s="31">
+        <v/>
+      </c>
+      <c r="D28" s="31" t="str">
         <f>IF(proforma!D28&lt;&gt;"",(proforma!D28),"")</f>
-      </c>
-      <c r="E28" s="8">
+        <v/>
+      </c>
+      <c r="E28" s="8" t="str">
         <f>IF(proforma!E28&lt;&gt;"",(proforma!E28),"")</f>
-      </c>
-      <c r="F28" s="8">
+        <v/>
+      </c>
+      <c r="F28" s="8" t="str">
         <f t="shared" si="0"/>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="30">
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B29" s="30" t="str">
         <f>IF(proforma!B29&lt;&gt;"",(proforma!B29),"")</f>
-      </c>
-      <c r="C29" s="30">
+        <v/>
+      </c>
+      <c r="C29" s="30" t="str">
         <f>IF(proforma!C29&lt;&gt;"",(proforma!C29),"")</f>
-      </c>
-      <c r="D29" s="31">
+        <v/>
+      </c>
+      <c r="D29" s="31" t="str">
         <f>IF(proforma!D29&lt;&gt;"",(proforma!D29),"")</f>
-      </c>
-      <c r="E29" s="8">
+        <v/>
+      </c>
+      <c r="E29" s="8" t="str">
         <f>IF(proforma!E29&lt;&gt;"",(proforma!E29),"")</f>
-      </c>
-      <c r="F29" s="8">
+        <v/>
+      </c>
+      <c r="F29" s="8" t="str">
         <f t="shared" si="0"/>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="30">
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="30" t="str">
         <f>IF(proforma!B30&lt;&gt;"",(proforma!B30),"")</f>
-      </c>
-      <c r="C30" s="30">
+        <v/>
+      </c>
+      <c r="C30" s="30" t="str">
         <f>IF(proforma!C30&lt;&gt;"",(proforma!C30),"")</f>
-      </c>
-      <c r="D30" s="31">
+        <v/>
+      </c>
+      <c r="D30" s="31" t="str">
         <f>IF(proforma!D30&lt;&gt;"",(proforma!D30),"")</f>
-      </c>
-      <c r="E30" s="8">
+        <v/>
+      </c>
+      <c r="E30" s="8" t="str">
         <f>IF(proforma!E30&lt;&gt;"",(proforma!E30),"")</f>
-      </c>
-      <c r="F30" s="8">
+        <v/>
+      </c>
+      <c r="F30" s="8" t="str">
         <f t="shared" si="0"/>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="30">
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="30" t="str">
         <f>IF(proforma!B31&lt;&gt;"",(proforma!B31),"")</f>
-      </c>
-      <c r="C31" s="30">
+        <v/>
+      </c>
+      <c r="C31" s="30" t="str">
         <f>IF(proforma!C31&lt;&gt;"",(proforma!C31),"")</f>
-      </c>
-      <c r="D31" s="31">
+        <v/>
+      </c>
+      <c r="D31" s="31" t="str">
         <f>IF(proforma!D31&lt;&gt;"",(proforma!D31),"")</f>
-      </c>
-      <c r="E31" s="8">
+        <v/>
+      </c>
+      <c r="E31" s="8" t="str">
         <f>IF(proforma!E31&lt;&gt;"",(proforma!E31),"")</f>
-      </c>
-      <c r="F31" s="8">
+        <v/>
+      </c>
+      <c r="F31" s="8" t="str">
         <f t="shared" si="0"/>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="30">
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="30" t="e">
         <f>IF(proforma!#REF!&lt;&gt;"",(proforma!#REF!),"")</f>
-      </c>
-      <c r="C32" s="30">
+        <v>#REF!</v>
+      </c>
+      <c r="C32" s="30" t="e">
         <f>IF(proforma!#REF!&lt;&gt;"",(proforma!#REF!),"")</f>
-      </c>
-      <c r="D32" s="31">
+        <v>#REF!</v>
+      </c>
+      <c r="D32" s="31" t="e">
         <f>IF(proforma!#REF!&lt;&gt;"",(proforma!#REF!),"")</f>
-      </c>
-      <c r="E32" s="8">
+        <v>#REF!</v>
+      </c>
+      <c r="E32" s="8" t="e">
         <f>IF(proforma!#REF!&lt;&gt;"",(proforma!#REF!),"")</f>
-      </c>
-      <c r="F32" s="8">
+        <v>#REF!</v>
+      </c>
+      <c r="F32" s="8" t="e">
         <f t="shared" si="0"/>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="30">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="30" t="e">
         <f>IF(proforma!#REF!&lt;&gt;"",(proforma!#REF!),"")</f>
-      </c>
-      <c r="C33" s="30">
+        <v>#REF!</v>
+      </c>
+      <c r="C33" s="30" t="e">
         <f>IF(proforma!#REF!&lt;&gt;"",(proforma!#REF!),"")</f>
-      </c>
-      <c r="D33" s="31">
+        <v>#REF!</v>
+      </c>
+      <c r="D33" s="31" t="e">
         <f>IF(proforma!#REF!&lt;&gt;"",(proforma!#REF!),"")</f>
-      </c>
-      <c r="E33" s="8">
+        <v>#REF!</v>
+      </c>
+      <c r="E33" s="8" t="e">
         <f>IF(proforma!#REF!&lt;&gt;"",(proforma!#REF!),"")</f>
-      </c>
-      <c r="F33" s="8">
+        <v>#REF!</v>
+      </c>
+      <c r="F33" s="8" t="e">
         <f t="shared" si="0"/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B34" t="s" s="1">
+      <c r="B34" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="32"/>
       <c r="E34" s="33"/>
-      <c r="F34" s="34">
+      <c r="F34" s="34" t="e">
         <f>SUM(F18:F33)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B35" s="68">
+      <c r="B35" s="68" t="str">
         <f>proforma!B45</f>
+        <v>Condiciones de Pago:</v>
       </c>
       <c r="C35" s="68"/>
       <c r="D35" s="70">
         <f>proforma!D45</f>
+        <v>50</v>
       </c>
       <c r="E35" s="71"/>
       <c r="F35" s="69">
         <f>proforma!F45</f>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B36" s="45">
+        <v>-806.5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B36" s="45" t="str">
         <f>IF(proforma!B46&lt;&gt;"",(proforma!B46),"")</f>
+        <v>TOTAL BASE IMPONIBLE PINTURAS</v>
       </c>
       <c r="C36" s="45"/>
-      <c r="D36" s="45">
+      <c r="D36" s="45" t="str">
         <f>IF(proforma!D46&lt;&gt;"",(proforma!D46),"")</f>
+        <v/>
       </c>
       <c r="E36" s="72"/>
-      <c r="F36" s="72">
+      <c r="F36" s="72" t="e">
         <f>SUM(F34:F35)</f>
-      </c>
-    </row>
-    <row r="37" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B37" s="13">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B37" s="13" t="str">
         <f>IF(proforma!B47&lt;&gt;"",(proforma!B47),"")</f>
+        <v>Forma de Pago:</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13">
         <f>IF(proforma!D47&lt;&gt;"",(proforma!D47),"")</f>
+        <v>1</v>
       </c>
       <c r="E37" s="35"/>
       <c r="F37" s="35">
         <f>proforma!F47</f>
-      </c>
-    </row>
-    <row r="38" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B38" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B38" s="13" t="str">
         <f>IF(proforma!B48&lt;&gt;"",(proforma!B48),"")</f>
+        <v>Banco/NºCta:</v>
       </c>
       <c r="C38" s="13"/>
-      <c r="D38" s="13">
+      <c r="D38" s="13" t="str">
         <f>IF(proforma!D48&lt;&gt;"",(proforma!D48),"")</f>
-      </c>
-      <c r="E38" s="35">
+        <v/>
+      </c>
+      <c r="E38" s="35" t="str">
         <f>IF(proforma!E48&lt;&gt;"",(proforma!E48),"")</f>
-      </c>
-      <c r="F38" s="35">
+        <v/>
+      </c>
+      <c r="F38" s="35" t="str">
         <f>proforma!F48</f>
-      </c>
-    </row>
-    <row r="39" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B39" s="68">
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B39" s="68" t="str">
         <f>IF(proforma!B49&lt;&gt;"",(proforma!B49),"")</f>
+        <v>Forma de Envio:</v>
       </c>
       <c r="C39" s="68"/>
-      <c r="D39" s="68">
+      <c r="D39" s="68" t="str">
         <f>IF(proforma!D49&lt;&gt;"",(proforma!D49),"")</f>
-      </c>
-      <c r="E39" s="69">
+        <v/>
+      </c>
+      <c r="E39" s="69" t="str">
         <f>IF(proforma!E49&lt;&gt;"",(proforma!E49),"")</f>
-      </c>
-      <c r="F39" s="69">
+        <v/>
+      </c>
+      <c r="F39" s="69" t="str">
         <f>proforma!F49</f>
-      </c>
-    </row>
-    <row r="40" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B40" s="45">
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B40" s="45" t="str">
         <f>IF(proforma!B50&lt;&gt;"",(proforma!B50),"")</f>
+        <v>Vencimiento:</v>
       </c>
       <c r="C40" s="45"/>
-      <c r="D40" s="45">
+      <c r="D40" s="45" t="str">
         <f>IF(proforma!D50&lt;&gt;"",(proforma!D50),"")</f>
+        <v/>
       </c>
       <c r="E40" s="72"/>
-      <c r="F40" s="72">
+      <c r="F40" s="72" t="e">
         <f>SUM(F36:F39)</f>
-      </c>
-    </row>
-    <row r="41" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B41" s="13">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B41" s="13" t="str">
         <f>IF(proforma!B51&lt;&gt;"",(proforma!B51),"")</f>
+        <v>21% IVA</v>
       </c>
       <c r="C41" s="13"/>
-      <c r="D41" s="13">
+      <c r="D41" s="13" t="str">
         <f>IF(proforma!D51&lt;&gt;"",(proforma!D51),"")</f>
+        <v/>
       </c>
       <c r="E41" s="35"/>
       <c r="F41" s="35">
         <f>IF(proforma!F51&lt;&gt;"",(proforma!F51),"")</f>
-      </c>
-    </row>
-    <row r="42" spans="2:6" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="B42" t="s" s="73">
-        <v>8</v>
+        <v>169.36499999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B42" s="73" t="s">
+        <v>7</v>
       </c>
       <c r="C42" s="73"/>
       <c r="D42" s="73"/>
       <c r="E42" s="74"/>
-      <c r="F42" s="74">
+      <c r="F42" s="74" t="e">
         <f>SUM(F40:F41)</f>
-      </c>
-    </row>
-    <row r="43" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="2:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B45" t="s" s="22">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="2:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B45" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="46" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" t="s" s="18">
-        <v>24</v>
-      </c>
-      <c r="C47" s="18">
+      <c r="C47" s="18" t="str">
         <f>proforma!C57</f>
+        <v>Transferencia</v>
       </c>
       <c r="D47" s="18"/>
       <c r="E47" s="19"/>
       <c r="F47" s="19"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" t="s" s="18">
-        <v>26</v>
-      </c>
-      <c r="C48" s="20">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="20" t="str">
         <f>proforma!C58</f>
+        <v>Banco La Caixa/ES21  2100  0727  8202  0028  9372</v>
       </c>
       <c r="D48" s="20"/>
       <c r="E48" s="21"/>
       <c r="F48" s="19"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" t="s" s="18">
-        <v>27</v>
-      </c>
-      <c r="C49" s="18">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="18" t="str">
         <f>proforma!C59</f>
+        <v>portes pagados</v>
       </c>
       <c r="D49" s="18"/>
       <c r="E49" s="19"/>
       <c r="F49" s="19"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" t="s" s="16">
-        <v>28</v>
-      </c>
-      <c r="C50" s="44">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="44" t="str">
         <f>IF(proforma!C60&lt;&gt;"",(proforma!C60),"")</f>
+        <v/>
       </c>
       <c r="D50" s="16"/>
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
     </row>
-    <row r="51" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B53" t="s" s="36">
-        <v>30</v>
+    <row r="51" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B53" s="36" t="s">
+        <v>29</v>
       </c>
       <c r="C53"/>
       <c r="D53"/>
     </row>
-    <row r="54" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" t="s" s="37">
-        <v>31</v>
+    <row r="54" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="37" t="s">
+        <v>30</v>
       </c>
       <c r="C54" s="37"/>
       <c r="D54" s="12"/>
       <c r="E54" s="38"/>
-      <c r="F54" t="s" s="39">
+      <c r="F54" s="39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="37" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" t="s" s="37">
-        <v>33</v>
       </c>
       <c r="C55" s="37"/>
       <c r="D55" s="12"/>
       <c r="E55" s="38"/>
-      <c r="F55" t="s" s="39">
+      <c r="F55" s="39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="37" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" t="s" s="37">
-        <v>35</v>
       </c>
       <c r="C56" s="37"/>
       <c r="D56" s="12"/>
       <c r="E56" s="38"/>
-      <c r="F56" t="s" s="75">
-        <v>108</v>
+      <c r="F56" s="75" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3893,117 +3941,129 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr/>
+  <dimension ref="B4:F56"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="37.109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="23.5546875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" style="11" customWidth="1"/>
     <col min="6" max="6" width="13" style="11" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="11.44140625" style="7"/>
+    <col min="7" max="7" width="6.85546875" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="E4" t="s" s="23">
-        <v>38</v>
+    <row r="4" spans="2:6" ht="25.9" x14ac:dyDescent="0.5">
+      <c r="E4" s="23" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="E5" s="14">
+      <c r="E5" s="14" t="str">
         <f>proforma!E4</f>
+        <v>FACTURA PROFORMA:</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="E6" s="14">
+      <c r="E6" s="14" t="str">
         <f>proforma!E5</f>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B8" t="s" s="22">
+        <v>Nº: 100 m2 PISCINAS</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="23.45" x14ac:dyDescent="0.45">
+      <c r="B8" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="14"/>
+    </row>
+    <row r="9" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="24" t="str">
+        <f>IF(proforma!C8&lt;&gt;"",(proforma!C8),"")</f>
+        <v>Suelos Epoxi 3D SC</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="41" t="str">
+        <f>IF(proforma!E8&lt;&gt;"",(proforma!E8),"")</f>
+        <v>ACRILICA PISCINAS</v>
+      </c>
+      <c r="F9" s="25"/>
+    </row>
+    <row r="10" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="14"/>
-    </row>
-    <row r="9" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B9" t="s" s="24">
+      <c r="C10" s="24" t="str">
+        <f>IF(proforma!C9&lt;&gt;"",(proforma!C9),"")</f>
+        <v>PISCINAS CON ENEKRIL PISCINAS</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="41" t="str">
+        <f>IF(proforma!E9&lt;&gt;"",(proforma!E9),"")</f>
+        <v/>
+      </c>
+      <c r="F10" s="25"/>
+    </row>
+    <row r="11" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B11" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="24">
-        <f>IF(proforma!C8&lt;&gt;"",(proforma!C8),"")</f>
-      </c>
-      <c r="D9" t="s" s="24">
-        <v>17</v>
-      </c>
-      <c r="E9" s="41">
-        <f>IF(proforma!E8&lt;&gt;"",(proforma!E8),"")</f>
-      </c>
-      <c r="F9" s="25"/>
-    </row>
-    <row r="10" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B10" t="s" s="24">
-        <v>12</v>
-      </c>
-      <c r="C10" s="24">
-        <f>IF(proforma!C9&lt;&gt;"",(proforma!C9),"")</f>
-      </c>
-      <c r="D10" t="s" s="24">
+      <c r="C11" s="24" t="str">
+        <f>IF(proforma!C10&lt;&gt;"",(proforma!C10),"")</f>
+        <v>Torrevieja</v>
+      </c>
+      <c r="D11" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="41">
-        <f>IF(proforma!E9&lt;&gt;"",(proforma!E9),"")</f>
-      </c>
-      <c r="F10" s="25"/>
-    </row>
-    <row r="11" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B11" t="s" s="24">
+      <c r="E11" s="41" t="str">
+        <f>IF(proforma!E10&lt;&gt;"",(proforma!E10),"")</f>
+        <v>Alicante</v>
+      </c>
+      <c r="F11" s="25"/>
+    </row>
+    <row r="12" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B12" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="24">
-        <f>IF(proforma!C10&lt;&gt;"",(proforma!C10),"")</f>
-      </c>
-      <c r="D11" t="s" s="24">
+      <c r="C12" s="24" t="str">
+        <f>IF(proforma!C11&lt;&gt;"",(proforma!C11),"")</f>
+        <v>ENEKRIL PISCINAS</v>
+      </c>
+      <c r="D12" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="41">
-        <f>IF(proforma!E10&lt;&gt;"",(proforma!E10),"")</f>
-      </c>
-      <c r="F11" s="25"/>
-    </row>
-    <row r="12" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B12" t="s" s="24">
+      <c r="E12" s="41" t="str">
+        <f>IF(proforma!E11&lt;&gt;"",(proforma!E11),"")</f>
+        <v>627 69 68 58</v>
+      </c>
+      <c r="F12" s="25"/>
+    </row>
+    <row r="13" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B13" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="24">
-        <f>IF(proforma!C11&lt;&gt;"",(proforma!C11),"")</f>
-      </c>
-      <c r="D12" t="s" s="24">
+      <c r="C13" s="24" t="str">
+        <f>IF(proforma!C12&lt;&gt;"",(proforma!C12),"")</f>
+        <v>Jesús Jaramillo</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="41">
-        <f>IF(proforma!E11&lt;&gt;"",(proforma!E11),"")</f>
-      </c>
-      <c r="F12" s="25"/>
-    </row>
-    <row r="13" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B13" t="s" s="24">
-        <v>16</v>
-      </c>
-      <c r="C13" s="24">
-        <f>IF(proforma!C12&lt;&gt;"",(proforma!C12),"")</f>
-      </c>
-      <c r="D13" t="s" s="24">
-        <v>21</v>
-      </c>
-      <c r="E13" s="41">
+      <c r="E13" s="41" t="str">
         <f>IF(proforma!E12&lt;&gt;"",(proforma!E12),"")</f>
+        <v/>
       </c>
       <c r="F13" s="25"/>
     </row>
@@ -4011,238 +4071,285 @@
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
-      <c r="E14" s="42">
+      <c r="E14" s="42" t="str">
         <f>IF(proforma!E13&lt;&gt;"",(proforma!E13),"")</f>
+        <v/>
       </c>
       <c r="F14" s="27"/>
     </row>
-    <row r="15" spans="2:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B15" t="s" s="22">
-        <v>22</v>
+    <row r="15" spans="2:6" ht="23.45" x14ac:dyDescent="0.45">
+      <c r="B15" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="E15" s="15"/>
     </row>
-    <row r="17" spans="2:6" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="B17" t="s" s="9">
+    <row r="17" spans="2:6" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B17" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="9"/>
-      <c r="D17" t="s" s="28">
+      <c r="D17" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E17" t="s" s="29">
+      <c r="E17" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F17" t="s" s="29">
+      <c r="F17" s="29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="6">
+      <c r="F18" s="6" t="str">
         <f>IF(D18&lt;&gt;"",D18*E18,"")</f>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="30">
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="30" t="str">
         <f>IF(proforma!B18&lt;&gt;"",(proforma!B18),"")</f>
-      </c>
-      <c r="C19" s="30">
+        <v>2 MANOS EPOXY</v>
+      </c>
+      <c r="C19" s="30" t="str">
         <f>IF(proforma!C18&lt;&gt;"",(proforma!C18),"")</f>
-      </c>
-      <c r="D19" s="31">
+        <v/>
+      </c>
+      <c r="D19" s="31" t="str">
         <f>IF(proforma!D18&lt;&gt;"",(proforma!D18),"")</f>
+        <v/>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="30">
+    <row r="20" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="30" t="str">
         <f>IF(proforma!B19&lt;&gt;"",(proforma!B19),"")</f>
-      </c>
-      <c r="C20" s="30">
+        <v>KIT 30 KGS</v>
+      </c>
+      <c r="C20" s="30" t="str">
         <f>IF(proforma!C19&lt;&gt;"",(proforma!C19),"")</f>
+        <v>EPOXI AMX</v>
       </c>
       <c r="D20" s="31">
         <f>IF(proforma!D19&lt;&gt;"",(proforma!D19),"")</f>
+        <v>2</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="30">
+    <row r="21" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="30" t="str">
         <f>IF(proforma!B20&lt;&gt;"",(proforma!B20),"")</f>
-      </c>
-      <c r="C21" s="30">
+        <v>Catalizador 5 a 1</v>
+      </c>
+      <c r="C21" s="30" t="str">
         <f>IF(proforma!C20&lt;&gt;"",(proforma!C20),"")</f>
-      </c>
-      <c r="D21" s="31">
+        <v>ROJO CARTA 100% Sólidos (DOS MANOS)</v>
+      </c>
+      <c r="D21" s="31" t="str">
         <f>IF(proforma!D20&lt;&gt;"",(proforma!D20),"")</f>
+        <v/>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="30">
+    <row r="22" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="30" t="str">
         <f>IF(proforma!B22&lt;&gt;"",(proforma!B22),"")</f>
-      </c>
-      <c r="C22" s="30">
+        <v>2 MANOS</v>
+      </c>
+      <c r="C22" s="30" t="str">
         <f>IF(proforma!C22&lt;&gt;"",(proforma!C22),"")</f>
-      </c>
-      <c r="D22" s="31">
+        <v>ROJO CARTA 100% Sólidos (DOS MANOS)</v>
+      </c>
+      <c r="D22" s="31" t="str">
         <f>IF(proforma!D22&lt;&gt;"",(proforma!D22),"")</f>
+        <v/>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="30">
+    <row r="23" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="30" t="str">
         <f>IF(proforma!B23&lt;&gt;"",(proforma!B23),"")</f>
-      </c>
-      <c r="C23" s="30">
+        <v>KIT 15 KGS</v>
+      </c>
+      <c r="C23" s="30" t="str">
         <f>IF(proforma!C23&lt;&gt;"",(proforma!C23),"")</f>
+        <v>ENEKRIL PISCINAS</v>
       </c>
       <c r="D23" s="31">
         <f>IF(proforma!D23&lt;&gt;"",(proforma!D23),"")</f>
+        <v>2</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="30">
+    <row r="24" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="30" t="str">
         <f>IF(proforma!B24&lt;&gt;"",(proforma!B24),"")</f>
-      </c>
-      <c r="C24" s="30">
+        <v/>
+      </c>
+      <c r="C24" s="30" t="str">
         <f>IF(proforma!C24&lt;&gt;"",(proforma!C24),"")</f>
-      </c>
-      <c r="D24" s="31">
+        <v xml:space="preserve"> RAL 5015</v>
+      </c>
+      <c r="D24" s="31" t="str">
         <f>IF(proforma!D24&lt;&gt;"",(proforma!D24),"")</f>
+        <v/>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="30">
+    <row r="25" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="30" t="str">
         <f>IF(proforma!B25&lt;&gt;"",(proforma!B25),"")</f>
-      </c>
-      <c r="C25" s="30">
+        <v/>
+      </c>
+      <c r="C25" s="30" t="str">
         <f>IF(proforma!C25&lt;&gt;"",(proforma!C25),"")</f>
-      </c>
-      <c r="D25" s="31">
+        <v/>
+      </c>
+      <c r="D25" s="31" t="str">
         <f>IF(proforma!D25&lt;&gt;"",(proforma!D25),"")</f>
+        <v/>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="30">
+    <row r="26" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="30" t="str">
         <f>IF(proforma!B26&lt;&gt;"",(proforma!B26),"")</f>
-      </c>
-      <c r="C26" s="30">
+        <v/>
+      </c>
+      <c r="C26" s="30" t="str">
         <f>IF(proforma!C26&lt;&gt;"",(proforma!C26),"")</f>
-      </c>
-      <c r="D26" s="31">
+        <v/>
+      </c>
+      <c r="D26" s="31" t="str">
         <f>IF(proforma!D26&lt;&gt;"",(proforma!D26),"")</f>
+        <v/>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="30">
+    <row r="27" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="30" t="str">
         <f>IF(proforma!B27&lt;&gt;"",(proforma!B27),"")</f>
-      </c>
-      <c r="C27" s="30">
+        <v/>
+      </c>
+      <c r="C27" s="30" t="str">
         <f>IF(proforma!C27&lt;&gt;"",(proforma!C27),"")</f>
-      </c>
-      <c r="D27" s="31">
+        <v/>
+      </c>
+      <c r="D27" s="31" t="str">
         <f>IF(proforma!D27&lt;&gt;"",(proforma!D27),"")</f>
+        <v/>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="30">
+    <row r="28" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="30" t="str">
         <f>IF(proforma!B28&lt;&gt;"",(proforma!B28),"")</f>
-      </c>
-      <c r="C28" s="30">
+        <v/>
+      </c>
+      <c r="C28" s="30" t="str">
         <f>IF(proforma!C28&lt;&gt;"",(proforma!C28),"")</f>
-      </c>
-      <c r="D28" s="31">
+        <v/>
+      </c>
+      <c r="D28" s="31" t="str">
         <f>IF(proforma!D28&lt;&gt;"",(proforma!D28),"")</f>
+        <v/>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="30">
+    <row r="29" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B29" s="30" t="str">
         <f>IF(proforma!B29&lt;&gt;"",(proforma!B29),"")</f>
-      </c>
-      <c r="C29" s="30">
+        <v/>
+      </c>
+      <c r="C29" s="30" t="str">
         <f>IF(proforma!C29&lt;&gt;"",(proforma!C29),"")</f>
-      </c>
-      <c r="D29" s="31">
+        <v/>
+      </c>
+      <c r="D29" s="31" t="str">
         <f>IF(proforma!D29&lt;&gt;"",(proforma!D29),"")</f>
+        <v/>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="30">
+    <row r="30" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="30" t="str">
         <f>IF(proforma!B30&lt;&gt;"",(proforma!B30),"")</f>
-      </c>
-      <c r="C30" s="30">
+        <v/>
+      </c>
+      <c r="C30" s="30" t="str">
         <f>IF(proforma!C30&lt;&gt;"",(proforma!C30),"")</f>
-      </c>
-      <c r="D30" s="31">
+        <v/>
+      </c>
+      <c r="D30" s="31" t="str">
         <f>IF(proforma!D30&lt;&gt;"",(proforma!D30),"")</f>
+        <v/>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="30">
+    <row r="31" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="30" t="str">
         <f>IF(proforma!B31&lt;&gt;"",(proforma!B31),"")</f>
-      </c>
-      <c r="C31" s="30">
+        <v/>
+      </c>
+      <c r="C31" s="30" t="str">
         <f>IF(proforma!C31&lt;&gt;"",(proforma!C31),"")</f>
-      </c>
-      <c r="D31" s="31">
+        <v/>
+      </c>
+      <c r="D31" s="31" t="str">
         <f>IF(proforma!D31&lt;&gt;"",(proforma!D31),"")</f>
+        <v/>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="30">
+    <row r="32" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="30" t="e">
         <f>IF(proforma!#REF!&lt;&gt;"",(proforma!#REF!),"")</f>
-      </c>
-      <c r="C32" s="30">
+        <v>#REF!</v>
+      </c>
+      <c r="C32" s="30" t="e">
         <f>IF(proforma!#REF!&lt;&gt;"",(proforma!#REF!),"")</f>
-      </c>
-      <c r="D32" s="31">
+        <v>#REF!</v>
+      </c>
+      <c r="D32" s="31" t="e">
         <f>IF(proforma!#REF!&lt;&gt;"",(proforma!#REF!),"")</f>
+        <v>#REF!</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="30">
+    <row r="33" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="30" t="e">
         <f>IF(proforma!#REF!&lt;&gt;"",(proforma!#REF!),"")</f>
-      </c>
-      <c r="C33" s="30">
+        <v>#REF!</v>
+      </c>
+      <c r="C33" s="30" t="e">
         <f>IF(proforma!#REF!&lt;&gt;"",(proforma!#REF!),"")</f>
-      </c>
-      <c r="D33" s="31">
+        <v>#REF!</v>
+      </c>
+      <c r="D33" s="31" t="e">
         <f>IF(proforma!#REF!&lt;&gt;"",(proforma!#REF!),"")</f>
+        <v>#REF!</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B34" t="s" s="1">
+      <c r="B34" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="1"/>
@@ -4251,8 +4358,9 @@
       <c r="F34" s="34"/>
     </row>
     <row r="35" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B35" s="68">
+      <c r="B35" s="68" t="str">
         <f>proforma!B45</f>
+        <v>Condiciones de Pago:</v>
       </c>
       <c r="C35" s="68"/>
       <c r="D35" s="70"/>
@@ -4260,170 +4368,184 @@
       <c r="F35" s="69"/>
     </row>
     <row r="36" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B36" s="45">
+      <c r="B36" s="45" t="str">
         <f>IF(proforma!B46&lt;&gt;"",(proforma!B46),"")</f>
+        <v>TOTAL BASE IMPONIBLE PINTURAS</v>
       </c>
       <c r="C36" s="45"/>
-      <c r="D36" s="45">
+      <c r="D36" s="45" t="str">
         <f>IF(proforma!D46&lt;&gt;"",(proforma!D46),"")</f>
+        <v/>
       </c>
       <c r="E36" s="72"/>
       <c r="F36" s="72"/>
     </row>
     <row r="37" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B37" s="13">
+      <c r="B37" s="13" t="str">
         <f>IF(proforma!B47&lt;&gt;"",(proforma!B47),"")</f>
+        <v>Forma de Pago:</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13">
         <f>IF(proforma!D47&lt;&gt;"",(proforma!D47),"")</f>
+        <v>1</v>
       </c>
       <c r="E37" s="35"/>
       <c r="F37" s="35"/>
     </row>
     <row r="38" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B38" s="13">
+      <c r="B38" s="13" t="str">
         <f>IF(proforma!B48&lt;&gt;"",(proforma!B48),"")</f>
+        <v>Banco/NºCta:</v>
       </c>
       <c r="C38" s="13"/>
-      <c r="D38" s="13">
+      <c r="D38" s="13" t="str">
         <f>IF(proforma!D48&lt;&gt;"",(proforma!D48),"")</f>
+        <v/>
       </c>
       <c r="E38" s="35"/>
       <c r="F38" s="35"/>
     </row>
-    <row r="39" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B39" s="68">
+    <row r="39" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B39" s="68" t="str">
         <f>IF(proforma!B49&lt;&gt;"",(proforma!B49),"")</f>
+        <v>Forma de Envio:</v>
       </c>
       <c r="C39" s="68"/>
-      <c r="D39" s="68">
+      <c r="D39" s="68" t="str">
         <f>IF(proforma!D49&lt;&gt;"",(proforma!D49),"")</f>
+        <v/>
       </c>
       <c r="E39" s="69"/>
       <c r="F39" s="69"/>
     </row>
-    <row r="40" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B40" t="s" s="45">
-        <v>6</v>
+    <row r="40" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B40" s="45" t="s">
+        <v>5</v>
       </c>
       <c r="C40" s="45"/>
-      <c r="D40" s="45">
+      <c r="D40" s="45" t="str">
         <f>IF(proforma!D50&lt;&gt;"",(proforma!D50),"")</f>
+        <v/>
       </c>
       <c r="E40" s="72"/>
       <c r="F40" s="72"/>
     </row>
-    <row r="41" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B41" s="13">
+    <row r="41" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B41" s="13" t="str">
         <f>IF(proforma!B51&lt;&gt;"",(proforma!B51),"")</f>
+        <v>21% IVA</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="35"/>
       <c r="F41" s="35"/>
     </row>
-    <row r="42" spans="2:6" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="B42" t="s" s="73">
-        <v>8</v>
+    <row r="42" spans="2:6" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B42" s="73" t="s">
+        <v>7</v>
       </c>
       <c r="C42" s="73"/>
       <c r="D42" s="73"/>
       <c r="E42" s="74"/>
       <c r="F42" s="74"/>
     </row>
-    <row r="43" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="2:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B45" t="s" s="22">
+    <row r="43" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="2:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B45" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="46" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" t="s" s="18">
-        <v>24</v>
-      </c>
-      <c r="C47" s="18">
+      <c r="C47" s="18" t="str">
         <f>proforma!C57</f>
+        <v>Transferencia</v>
       </c>
       <c r="D47" s="18"/>
       <c r="E47" s="19"/>
       <c r="F47" s="19"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" t="s" s="18">
-        <v>26</v>
-      </c>
-      <c r="C48" s="20">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="20" t="str">
         <f>proforma!C58</f>
+        <v>Banco La Caixa/ES21  2100  0727  8202  0028  9372</v>
       </c>
       <c r="D48" s="20"/>
       <c r="E48" s="21"/>
       <c r="F48" s="19"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" t="s" s="18">
-        <v>27</v>
-      </c>
-      <c r="C49" s="18">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="18" t="str">
         <f>proforma!C59</f>
+        <v>portes pagados</v>
       </c>
       <c r="D49" s="18"/>
       <c r="E49" s="19"/>
       <c r="F49" s="19"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" t="s" s="16">
-        <v>28</v>
-      </c>
-      <c r="C50" s="44">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="44" t="str">
         <f>IF(proforma!C60&lt;&gt;"",(proforma!C60),"")</f>
+        <v/>
       </c>
       <c r="D50" s="16"/>
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
     </row>
-    <row r="51" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B53" t="s" s="36">
-        <v>30</v>
+    <row r="51" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B53" s="36" t="s">
+        <v>29</v>
       </c>
       <c r="C53"/>
       <c r="D53"/>
     </row>
-    <row r="54" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" t="s" s="37">
-        <v>31</v>
+    <row r="54" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="37" t="s">
+        <v>30</v>
       </c>
       <c r="C54" s="37"/>
       <c r="D54" s="12"/>
       <c r="E54" s="38"/>
-      <c r="F54" t="s" s="39">
+      <c r="F54" s="39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="37" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" t="s" s="37">
-        <v>33</v>
       </c>
       <c r="C55" s="37"/>
       <c r="D55" s="12"/>
       <c r="E55" s="38"/>
-      <c r="F55" t="s" s="39">
+      <c r="F55" s="39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="37" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" t="s" s="37">
-        <v>35</v>
       </c>
       <c r="C56" s="37"/>
       <c r="D56" s="12"/>
       <c r="E56" s="38"/>
-      <c r="F56" t="s" s="75">
-        <v>108</v>
+      <c r="F56" s="75" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4435,41 +4557,41 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr/>
+  <dimension ref="A4:F55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="37.109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="23.5546875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" style="11" customWidth="1"/>
     <col min="6" max="6" width="13" style="11" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="11.44140625" style="7"/>
+    <col min="7" max="7" width="6.85546875" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" ht="25.9" x14ac:dyDescent="0.5">
       <c r="A4" s="76"/>
       <c r="B4" s="76"/>
       <c r="C4" s="76"/>
       <c r="D4" s="76"/>
-      <c r="E4" t="s" s="77">
-        <v>36</v>
+      <c r="E4" s="77" t="s">
+        <v>35</v>
       </c>
       <c r="F4" s="78"/>
     </row>
-    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="76"/>
       <c r="B5" s="76"/>
       <c r="C5" s="76"/>
       <c r="D5" s="76"/>
-      <c r="E5" t="s" s="79">
-        <v>9</v>
+      <c r="E5" s="79" t="s">
+        <v>8</v>
       </c>
       <c r="F5" s="78"/>
     </row>
@@ -4478,27 +4600,29 @@
       <c r="B6" s="76"/>
       <c r="C6" s="76"/>
       <c r="D6" s="76"/>
-      <c r="E6" s="79">
+      <c r="E6" s="79" t="str">
         <f>proforma!E5</f>
+        <v>Nº: 100 m2 PISCINAS</v>
       </c>
       <c r="F6" s="78"/>
     </row>
-    <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="76"/>
       <c r="B7" s="76"/>
       <c r="C7" s="76"/>
       <c r="D7" s="76"/>
-      <c r="E7" t="s" s="80">
-        <v>101</v>
-      </c>
-      <c r="F7" s="81">
+      <c r="E7" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="81" t="str">
         <f>proforma!E4</f>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+        <v>FACTURA PROFORMA:</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="23.45" x14ac:dyDescent="0.45">
       <c r="A8" s="76"/>
-      <c r="B8" t="s" s="82">
-        <v>11</v>
+      <c r="B8" s="82" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="79"/>
       <c r="D8" s="76"/>
@@ -4507,81 +4631,91 @@
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="76"/>
-      <c r="B9" t="s" s="83">
-        <v>13</v>
-      </c>
-      <c r="C9" s="83">
+      <c r="B9" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="83" t="str">
         <f>IF(proforma!C8&lt;&gt;"",(proforma!C8),"")</f>
-      </c>
-      <c r="D9" t="s" s="83">
+        <v>Suelos Epoxi 3D SC</v>
+      </c>
+      <c r="D9" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="84" t="str">
+        <f>IF(proforma!E8&lt;&gt;"",(proforma!E8),"")</f>
+        <v>ACRILICA PISCINAS</v>
+      </c>
+      <c r="F9" s="85"/>
+    </row>
+    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="76"/>
+      <c r="B10" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="83" t="str">
+        <f>IF(proforma!C9&lt;&gt;"",(proforma!C9),"")</f>
+        <v>PISCINAS CON ENEKRIL PISCINAS</v>
+      </c>
+      <c r="D10" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="84">
-        <f>IF(proforma!E8&lt;&gt;"",(proforma!E8),"")</f>
-      </c>
-      <c r="F9" s="85"/>
-    </row>
-    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="76"/>
-      <c r="B10" t="s" s="83">
-        <v>12</v>
-      </c>
-      <c r="C10" s="83">
-        <f>IF(proforma!C9&lt;&gt;"",(proforma!C9),"")</f>
-      </c>
-      <c r="D10" t="s" s="83">
-        <v>18</v>
-      </c>
-      <c r="E10" s="84">
+      <c r="E10" s="84" t="str">
         <f>IF(proforma!E9&lt;&gt;"",(proforma!E9),"")</f>
+        <v/>
       </c>
       <c r="F10" s="85"/>
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="76"/>
-      <c r="B11" t="s" s="83">
-        <v>14</v>
-      </c>
-      <c r="C11" s="83">
+      <c r="B11" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="83" t="str">
         <f>IF(proforma!C10&lt;&gt;"",(proforma!C10),"")</f>
-      </c>
-      <c r="D11" t="s" s="83">
-        <v>19</v>
-      </c>
-      <c r="E11" s="84">
+        <v>Torrevieja</v>
+      </c>
+      <c r="D11" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="84" t="str">
         <f>IF(proforma!E10&lt;&gt;"",(proforma!E10),"")</f>
+        <v>Alicante</v>
       </c>
       <c r="F11" s="85"/>
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="76"/>
-      <c r="B12" t="s" s="83">
-        <v>15</v>
-      </c>
-      <c r="C12" s="83">
+      <c r="B12" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="83" t="str">
         <f>IF(proforma!C11&lt;&gt;"",(proforma!C11),"")</f>
-      </c>
-      <c r="D12" t="s" s="83">
-        <v>20</v>
-      </c>
-      <c r="E12" s="84">
+        <v>ENEKRIL PISCINAS</v>
+      </c>
+      <c r="D12" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="84" t="str">
         <f>IF(proforma!E11&lt;&gt;"",(proforma!E11),"")</f>
+        <v>627 69 68 58</v>
       </c>
       <c r="F12" s="85"/>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="76"/>
-      <c r="B13" t="s" s="83">
-        <v>16</v>
-      </c>
-      <c r="C13" s="83">
+      <c r="B13" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="83" t="str">
         <f>IF(proforma!C12&lt;&gt;"",(proforma!C12),"")</f>
-      </c>
-      <c r="D13" t="s" s="83">
-        <v>21</v>
-      </c>
-      <c r="E13" s="84">
+        <v>Jesús Jaramillo</v>
+      </c>
+      <c r="D13" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="84" t="str">
         <f>IF(proforma!E12&lt;&gt;"",(proforma!E12),"")</f>
+        <v/>
       </c>
       <c r="F13" s="85"/>
     </row>
@@ -4590,22 +4724,23 @@
       <c r="B14" s="86"/>
       <c r="C14" s="86"/>
       <c r="D14" s="86"/>
-      <c r="E14" s="87">
+      <c r="E14" s="87" t="str">
         <f>IF(proforma!E13&lt;&gt;"",(proforma!E13),"")</f>
+        <v/>
       </c>
       <c r="F14" s="88"/>
     </row>
-    <row r="15" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" ht="23.45" x14ac:dyDescent="0.45">
       <c r="A15" s="76"/>
-      <c r="B15" t="s" s="82">
-        <v>22</v>
+      <c r="B15" s="82" t="s">
+        <v>21</v>
       </c>
       <c r="C15" s="76"/>
       <c r="D15" s="76"/>
       <c r="E15" s="89"/>
       <c r="F15" s="78"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="76"/>
       <c r="B16" s="76"/>
       <c r="C16" s="76"/>
@@ -4613,305 +4748,381 @@
       <c r="E16" s="78"/>
       <c r="F16" s="78"/>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="90"/>
-      <c r="B17" t="s" s="91">
+      <c r="B17" s="91" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="91"/>
-      <c r="D17" t="s" s="92">
+      <c r="D17" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="E17" t="s" s="93">
+      <c r="E17" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="F17" t="s" s="93">
+      <c r="F17" s="93" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="76"/>
       <c r="B18" s="94"/>
       <c r="C18" s="94"/>
       <c r="D18" s="95"/>
       <c r="E18" s="96"/>
-      <c r="F18" s="97">
+      <c r="F18" s="97" t="str">
         <f>IF(D18&lt;&gt;"",D18*E18,"")</f>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="76"/>
-      <c r="B19" s="98">
+      <c r="B19" s="98" t="str">
         <f>IF(proforma!B18&lt;&gt;"",(proforma!B18),"")</f>
-      </c>
-      <c r="C19" s="98">
+        <v>2 MANOS EPOXY</v>
+      </c>
+      <c r="C19" s="98" t="str">
         <f>IF(proforma!C18&lt;&gt;"",(proforma!C18),"")</f>
-      </c>
-      <c r="D19" s="99">
+        <v/>
+      </c>
+      <c r="D19" s="99" t="str">
         <f>IF(proforma!D18&lt;&gt;"",(proforma!D18),"")</f>
-      </c>
-      <c r="E19" s="100">
+        <v/>
+      </c>
+      <c r="E19" s="100" t="str">
         <f>IF(proforma!E18&lt;&gt;"",(proforma!E18),"")</f>
-      </c>
-      <c r="F19" s="100">
+        <v/>
+      </c>
+      <c r="F19" s="100" t="str">
         <f>IF(D19&lt;&gt;"",D19*E19,"")</f>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="76"/>
-      <c r="B20" s="98">
+      <c r="B20" s="98" t="str">
         <f>IF(proforma!B19&lt;&gt;"",(proforma!B19),"")</f>
-      </c>
-      <c r="C20" s="98">
+        <v>KIT 30 KGS</v>
+      </c>
+      <c r="C20" s="98" t="str">
         <f>IF(proforma!C19&lt;&gt;"",(proforma!C19),"")</f>
+        <v>EPOXI AMX</v>
       </c>
       <c r="D20" s="99">
         <f>IF(proforma!D19&lt;&gt;"",(proforma!D19),"")</f>
+        <v>2</v>
       </c>
       <c r="E20" s="100">
         <f>IF(proforma!E19&lt;&gt;"",(proforma!E19),"")</f>
+        <v>484</v>
       </c>
       <c r="F20" s="100">
         <f t="shared" ref="F20:F31" si="0">IF(D20&lt;&gt;"",D20*E20,"")</f>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="76"/>
-      <c r="B21" s="98">
+      <c r="B21" s="98" t="str">
         <f>IF(proforma!B20&lt;&gt;"",(proforma!B20),"")</f>
-      </c>
-      <c r="C21" s="98">
+        <v>Catalizador 5 a 1</v>
+      </c>
+      <c r="C21" s="98" t="str">
         <f>IF(proforma!C20&lt;&gt;"",(proforma!C20),"")</f>
-      </c>
-      <c r="D21" s="99">
+        <v>ROJO CARTA 100% Sólidos (DOS MANOS)</v>
+      </c>
+      <c r="D21" s="99" t="str">
         <f>IF(proforma!D20&lt;&gt;"",(proforma!D20),"")</f>
-      </c>
-      <c r="E21" s="100">
+        <v/>
+      </c>
+      <c r="E21" s="100" t="str">
         <f>IF(proforma!E20&lt;&gt;"",(proforma!E20),"")</f>
-      </c>
-      <c r="F21" s="100">
+        <v/>
+      </c>
+      <c r="F21" s="100" t="str">
         <f t="shared" si="0"/>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="76"/>
-      <c r="B22" s="98">
+      <c r="B22" s="98" t="str">
         <f>IF(proforma!B22&lt;&gt;"",(proforma!B22),"")</f>
-      </c>
-      <c r="C22" s="98">
+        <v>2 MANOS</v>
+      </c>
+      <c r="C22" s="98" t="str">
         <f>IF(proforma!C22&lt;&gt;"",(proforma!C22),"")</f>
-      </c>
-      <c r="D22" s="99">
+        <v>ROJO CARTA 100% Sólidos (DOS MANOS)</v>
+      </c>
+      <c r="D22" s="99" t="str">
         <f>IF(proforma!D22&lt;&gt;"",(proforma!D22),"")</f>
-      </c>
-      <c r="E22" s="100">
+        <v/>
+      </c>
+      <c r="E22" s="100" t="str">
         <f>IF(proforma!E22&lt;&gt;"",(proforma!E22),"")</f>
-      </c>
-      <c r="F22" s="100">
+        <v/>
+      </c>
+      <c r="F22" s="100" t="str">
         <f t="shared" si="0"/>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="76"/>
-      <c r="B23" s="98">
+      <c r="B23" s="98" t="str">
         <f>IF(proforma!B23&lt;&gt;"",(proforma!B23),"")</f>
-      </c>
-      <c r="C23" s="98">
+        <v>KIT 15 KGS</v>
+      </c>
+      <c r="C23" s="98" t="str">
         <f>IF(proforma!C23&lt;&gt;"",(proforma!C23),"")</f>
+        <v>ENEKRIL PISCINAS</v>
       </c>
       <c r="D23" s="99">
         <f>IF(proforma!D23&lt;&gt;"",(proforma!D23),"")</f>
+        <v>2</v>
       </c>
       <c r="E23" s="100">
         <f>IF(proforma!E23&lt;&gt;"",(proforma!E23),"")</f>
+        <v>225</v>
       </c>
       <c r="F23" s="100">
         <f t="shared" si="0"/>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="76"/>
-      <c r="B24" s="98">
+      <c r="B24" s="98" t="str">
         <f>IF(proforma!B24&lt;&gt;"",(proforma!B24),"")</f>
-      </c>
-      <c r="C24" s="98">
+        <v/>
+      </c>
+      <c r="C24" s="98" t="str">
         <f>IF(proforma!C24&lt;&gt;"",(proforma!C24),"")</f>
-      </c>
-      <c r="D24" s="99">
+        <v xml:space="preserve"> RAL 5015</v>
+      </c>
+      <c r="D24" s="99" t="str">
         <f>IF(proforma!D24&lt;&gt;"",(proforma!D24),"")</f>
-      </c>
-      <c r="E24" s="100">
+        <v/>
+      </c>
+      <c r="E24" s="100" t="str">
         <f>IF(proforma!E24&lt;&gt;"",(proforma!E24),"")</f>
-      </c>
-      <c r="F24" s="100">
+        <v/>
+      </c>
+      <c r="F24" s="100" t="str">
         <f t="shared" si="0"/>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="76"/>
-      <c r="B25" s="98">
+      <c r="B25" s="98" t="str">
         <f>IF(proforma!B25&lt;&gt;"",(proforma!B25),"")</f>
-      </c>
-      <c r="C25" s="98">
+        <v/>
+      </c>
+      <c r="C25" s="98" t="str">
         <f>IF(proforma!C25&lt;&gt;"",(proforma!C25),"")</f>
-      </c>
-      <c r="D25" s="99">
+        <v/>
+      </c>
+      <c r="D25" s="99" t="str">
         <f>IF(proforma!D25&lt;&gt;"",(proforma!D25),"")</f>
-      </c>
-      <c r="E25" s="100">
+        <v/>
+      </c>
+      <c r="E25" s="100" t="str">
         <f>IF(proforma!E25&lt;&gt;"",(proforma!E25),"")</f>
-      </c>
-      <c r="F25" s="100">
+        <v/>
+      </c>
+      <c r="F25" s="100" t="str">
         <f t="shared" si="0"/>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="76"/>
-      <c r="B26" s="98">
+      <c r="B26" s="98" t="str">
         <f>IF(proforma!B26&lt;&gt;"",(proforma!B26),"")</f>
-      </c>
-      <c r="C26" s="98">
+        <v/>
+      </c>
+      <c r="C26" s="98" t="str">
         <f>IF(proforma!C26&lt;&gt;"",(proforma!C26),"")</f>
-      </c>
-      <c r="D26" s="99">
+        <v/>
+      </c>
+      <c r="D26" s="99" t="str">
         <f>IF(proforma!D26&lt;&gt;"",(proforma!D26),"")</f>
-      </c>
-      <c r="E26" s="100">
+        <v/>
+      </c>
+      <c r="E26" s="100" t="str">
         <f>IF(proforma!E26&lt;&gt;"",(proforma!E26),"")</f>
-      </c>
-      <c r="F26" s="100">
+        <v/>
+      </c>
+      <c r="F26" s="100" t="str">
         <f t="shared" si="0"/>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="76"/>
-      <c r="B27" s="98">
+      <c r="B27" s="98" t="str">
         <f>IF(proforma!B27&lt;&gt;"",(proforma!B27),"")</f>
-      </c>
-      <c r="C27" s="98">
+        <v/>
+      </c>
+      <c r="C27" s="98" t="str">
         <f>IF(proforma!C27&lt;&gt;"",(proforma!C27),"")</f>
-      </c>
-      <c r="D27" s="99">
+        <v/>
+      </c>
+      <c r="D27" s="99" t="str">
         <f>IF(proforma!D27&lt;&gt;"",(proforma!D27),"")</f>
-      </c>
-      <c r="E27" s="100">
+        <v/>
+      </c>
+      <c r="E27" s="100" t="str">
         <f>IF(proforma!E27&lt;&gt;"",(proforma!E27),"")</f>
-      </c>
-      <c r="F27" s="100">
+        <v/>
+      </c>
+      <c r="F27" s="100" t="str">
         <f t="shared" si="0"/>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="76"/>
-      <c r="B28" s="98">
+      <c r="B28" s="98" t="str">
         <f>IF(proforma!B28&lt;&gt;"",(proforma!B28),"")</f>
-      </c>
-      <c r="C28" s="98">
+        <v/>
+      </c>
+      <c r="C28" s="98" t="str">
         <f>IF(proforma!C28&lt;&gt;"",(proforma!C28),"")</f>
-      </c>
-      <c r="D28" s="99">
+        <v/>
+      </c>
+      <c r="D28" s="99" t="str">
         <f>IF(proforma!D28&lt;&gt;"",(proforma!D28),"")</f>
-      </c>
-      <c r="E28" s="100">
+        <v/>
+      </c>
+      <c r="E28" s="100" t="str">
         <f>IF(proforma!E28&lt;&gt;"",(proforma!E28),"")</f>
-      </c>
-      <c r="F28" s="100">
+        <v/>
+      </c>
+      <c r="F28" s="100" t="str">
         <f t="shared" si="0"/>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="76"/>
-      <c r="B29" s="98">
+      <c r="B29" s="98" t="str">
         <f>IF(proforma!B29&lt;&gt;"",(proforma!B29),"")</f>
-      </c>
-      <c r="C29" s="98">
+        <v/>
+      </c>
+      <c r="C29" s="98" t="str">
         <f>IF(proforma!C29&lt;&gt;"",(proforma!C29),"")</f>
-      </c>
-      <c r="D29" s="99">
+        <v/>
+      </c>
+      <c r="D29" s="99" t="str">
         <f>IF(proforma!D29&lt;&gt;"",(proforma!D29),"")</f>
-      </c>
-      <c r="E29" s="100">
+        <v/>
+      </c>
+      <c r="E29" s="100" t="str">
         <f>IF(proforma!E29&lt;&gt;"",(proforma!E29),"")</f>
-      </c>
-      <c r="F29" s="100">
+        <v/>
+      </c>
+      <c r="F29" s="100" t="str">
         <f t="shared" si="0"/>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="76"/>
-      <c r="B30" s="98">
+      <c r="B30" s="98" t="str">
         <f>IF(proforma!B30&lt;&gt;"",(proforma!B30),"")</f>
-      </c>
-      <c r="C30" s="98">
+        <v/>
+      </c>
+      <c r="C30" s="98" t="str">
         <f>IF(proforma!C30&lt;&gt;"",(proforma!C30),"")</f>
-      </c>
-      <c r="D30" s="99">
+        <v/>
+      </c>
+      <c r="D30" s="99" t="str">
         <f>IF(proforma!D30&lt;&gt;"",(proforma!D30),"")</f>
-      </c>
-      <c r="E30" s="100">
+        <v/>
+      </c>
+      <c r="E30" s="100" t="str">
         <f>IF(proforma!E30&lt;&gt;"",(proforma!E30),"")</f>
-      </c>
-      <c r="F30" s="100">
+        <v/>
+      </c>
+      <c r="F30" s="100" t="str">
         <f t="shared" si="0"/>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="76"/>
-      <c r="B31" s="98">
+      <c r="B31" s="98" t="str">
         <f>IF(proforma!B31&lt;&gt;"",(proforma!B31),"")</f>
-      </c>
-      <c r="C31" s="98">
+        <v/>
+      </c>
+      <c r="C31" s="98" t="str">
         <f>IF(proforma!C31&lt;&gt;"",(proforma!C31),"")</f>
-      </c>
-      <c r="D31" s="99">
+        <v/>
+      </c>
+      <c r="D31" s="99" t="str">
         <f>IF(proforma!D31&lt;&gt;"",(proforma!D31),"")</f>
-      </c>
-      <c r="E31" s="100">
+        <v/>
+      </c>
+      <c r="E31" s="100" t="str">
         <f>IF(proforma!E31&lt;&gt;"",(proforma!E31),"")</f>
-      </c>
-      <c r="F31" s="100">
+        <v/>
+      </c>
+      <c r="F31" s="100" t="str">
         <f t="shared" si="0"/>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="76"/>
-      <c r="B32" s="98">
+      <c r="B32" s="98" t="str">
         <f>IF(proforma!B32&lt;&gt;"",(proforma!B32),"")</f>
-      </c>
-      <c r="C32" s="98">
+        <v/>
+      </c>
+      <c r="C32" s="98" t="str">
         <f>IF(proforma!C32&lt;&gt;"",(proforma!C32),"")</f>
-      </c>
-      <c r="D32" s="99">
+        <v/>
+      </c>
+      <c r="D32" s="99" t="str">
         <f>IF(proforma!D32&lt;&gt;"",(proforma!D32),"")</f>
-      </c>
-      <c r="E32" s="100">
+        <v/>
+      </c>
+      <c r="E32" s="100" t="str">
         <f>IF(proforma!E32&lt;&gt;"",(proforma!E32),"")</f>
-      </c>
-      <c r="F32" s="100">
+        <v/>
+      </c>
+      <c r="F32" s="100" t="str">
         <f t="shared" ref="F32:F33" si="1">IF(D32&lt;&gt;"",D32*E32,"")</f>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="76"/>
-      <c r="B33" s="98">
+      <c r="B33" s="98" t="str">
         <f>IF(proforma!B33&lt;&gt;"",(proforma!B33),"")</f>
-      </c>
-      <c r="C33" s="98">
+        <v/>
+      </c>
+      <c r="C33" s="98" t="str">
         <f>IF(proforma!C33&lt;&gt;"",(proforma!C33),"")</f>
-      </c>
-      <c r="D33" s="99">
+        <v/>
+      </c>
+      <c r="D33" s="99" t="str">
         <f>IF(proforma!D33&lt;&gt;"",(proforma!D33),"")</f>
-      </c>
-      <c r="E33" s="100">
+        <v/>
+      </c>
+      <c r="E33" s="100" t="str">
         <f>IF(proforma!E33&lt;&gt;"",(proforma!E33),"")</f>
-      </c>
-      <c r="F33" s="100">
+        <v/>
+      </c>
+      <c r="F33" s="100" t="str">
         <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="76"/>
-      <c r="B34" t="s" s="101">
+      <c r="B34" s="101" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="101"/>
@@ -4919,121 +5130,145 @@
       <c r="E34" s="103"/>
       <c r="F34" s="104">
         <f>SUM(F18:F33)</f>
+        <v>1418</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="76"/>
-      <c r="B35" s="105">
+      <c r="B35" s="105" t="str">
         <f>proforma!B45</f>
+        <v>Condiciones de Pago:</v>
       </c>
       <c r="C35" s="105"/>
       <c r="D35" s="106">
         <f>proforma!D45</f>
+        <v>50</v>
       </c>
       <c r="E35" s="107"/>
       <c r="F35" s="108">
         <f>proforma!F45</f>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+        <v>-806.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="76"/>
-      <c r="B36" s="109">
+      <c r="B36" s="109" t="str">
         <f>IF(proforma!B46&lt;&gt;"",(proforma!B46),"")</f>
+        <v>TOTAL BASE IMPONIBLE PINTURAS</v>
       </c>
       <c r="C36" s="109"/>
-      <c r="D36" s="109">
+      <c r="D36" s="109" t="str">
         <f>IF(proforma!D46&lt;&gt;"",(proforma!D46),"")</f>
+        <v/>
       </c>
       <c r="E36" s="110"/>
       <c r="F36" s="110">
         <f>SUM(F34:F35)</f>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+        <v>611.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="76"/>
-      <c r="B37" s="111">
+      <c r="B37" s="111" t="str">
         <f>IF(proforma!B47&lt;&gt;"",(proforma!B47),"")</f>
+        <v>Forma de Pago:</v>
       </c>
       <c r="C37" s="111"/>
       <c r="D37" s="111">
         <f>IF(proforma!D47&lt;&gt;"",(proforma!D47),"")</f>
+        <v>1</v>
       </c>
       <c r="E37" s="112"/>
       <c r="F37" s="112">
         <f>proforma!F47</f>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="76"/>
-      <c r="B38" s="111">
+      <c r="B38" s="111" t="str">
         <f>IF(proforma!B48&lt;&gt;"",(proforma!B48),"")</f>
+        <v>Banco/NºCta:</v>
       </c>
       <c r="C38" s="111"/>
-      <c r="D38" s="111">
+      <c r="D38" s="111" t="str">
         <f>IF(proforma!D48&lt;&gt;"",(proforma!D48),"")</f>
-      </c>
-      <c r="E38" s="112">
+        <v/>
+      </c>
+      <c r="E38" s="112" t="str">
         <f>IF(proforma!E48&lt;&gt;"",(proforma!E48),"")</f>
-      </c>
-      <c r="F38" s="112">
+        <v/>
+      </c>
+      <c r="F38" s="112" t="str">
         <f>IF(D38&lt;&gt;"",(D38*E38),"")</f>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="76"/>
-      <c r="B39" s="105">
+      <c r="B39" s="105" t="str">
         <f>IF(proforma!B49&lt;&gt;"",(proforma!B49),"")</f>
+        <v>Forma de Envio:</v>
       </c>
       <c r="C39" s="105"/>
-      <c r="D39" s="105">
+      <c r="D39" s="105" t="str">
         <f>IF(proforma!D49&lt;&gt;"",(proforma!D49),"")</f>
-      </c>
-      <c r="E39" s="108">
+        <v/>
+      </c>
+      <c r="E39" s="108" t="str">
         <f>IF(proforma!E49&lt;&gt;"",(proforma!E49),"")</f>
-      </c>
-      <c r="F39" s="108">
+        <v/>
+      </c>
+      <c r="F39" s="108" t="str">
         <f>IF(D39&lt;&gt;"",(D39*E39),"")</f>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="76"/>
-      <c r="B40" s="109">
+      <c r="B40" s="109" t="str">
         <f>IF(proforma!B50&lt;&gt;"",(proforma!B50),"")</f>
+        <v>Vencimiento:</v>
       </c>
       <c r="C40" s="109"/>
-      <c r="D40" s="109">
+      <c r="D40" s="109" t="str">
         <f>IF(proforma!D50&lt;&gt;"",(proforma!D50),"")</f>
+        <v/>
       </c>
       <c r="E40" s="110"/>
       <c r="F40" s="110">
         <f>SUM(F36:F39)</f>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+        <v>611.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="76"/>
-      <c r="B41" s="111">
+      <c r="B41" s="111" t="str">
         <f>IF(proforma!B51&lt;&gt;"",(proforma!B51),"")</f>
+        <v>21% IVA</v>
       </c>
       <c r="C41" s="111"/>
       <c r="D41" s="111"/>
       <c r="E41" s="112"/>
       <c r="F41" s="112">
         <f>IF(proforma!F51&lt;&gt;"",(proforma!F51),"")</f>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+        <v>169.36499999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A42" s="113"/>
-      <c r="B42" t="s" s="114">
-        <v>8</v>
+      <c r="B42" s="114" t="s">
+        <v>7</v>
       </c>
       <c r="C42" s="114"/>
       <c r="D42" s="114"/>
       <c r="E42" s="115"/>
       <c r="F42" s="115">
         <f>SUM(F40:F41)</f>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>780.86500000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="76"/>
       <c r="B43" s="76"/>
       <c r="C43" s="76"/>
@@ -5041,7 +5276,7 @@
       <c r="E43" s="78"/>
       <c r="F43" s="78"/>
     </row>
-    <row r="44" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="76"/>
       <c r="B44" s="76"/>
       <c r="C44" s="76"/>
@@ -5049,17 +5284,17 @@
       <c r="E44" s="78"/>
       <c r="F44" s="78"/>
     </row>
-    <row r="45" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A45" s="76"/>
-      <c r="B45" t="s" s="82">
-        <v>23</v>
+      <c r="B45" s="82" t="s">
+        <v>22</v>
       </c>
       <c r="C45" s="76"/>
       <c r="D45" s="76"/>
       <c r="E45" s="78"/>
       <c r="F45" s="78"/>
     </row>
-    <row r="46" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="76"/>
       <c r="B46" s="76"/>
       <c r="C46" s="76"/>
@@ -5067,55 +5302,59 @@
       <c r="E46" s="78"/>
       <c r="F46" s="78"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="76"/>
-      <c r="B47" t="s" s="116">
-        <v>24</v>
-      </c>
-      <c r="C47" s="116">
+      <c r="B47" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="116" t="str">
         <f>proforma!C57</f>
+        <v>Transferencia</v>
       </c>
       <c r="D47" s="116"/>
       <c r="E47" s="117"/>
       <c r="F47" s="117"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="76"/>
-      <c r="B48" t="s" s="116">
-        <v>26</v>
-      </c>
-      <c r="C48" s="118">
+      <c r="B48" s="116" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="118" t="str">
         <f>proforma!C58</f>
+        <v>Banco La Caixa/ES21  2100  0727  8202  0028  9372</v>
       </c>
       <c r="D48" s="118"/>
       <c r="E48" s="119"/>
       <c r="F48" s="117"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="76"/>
-      <c r="B49" t="s" s="116">
-        <v>27</v>
-      </c>
-      <c r="C49" s="116">
+      <c r="B49" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="116" t="str">
         <f>proforma!C59</f>
+        <v>portes pagados</v>
       </c>
       <c r="D49" s="116"/>
       <c r="E49" s="117"/>
       <c r="F49" s="117"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="76"/>
-      <c r="B50" t="s" s="120">
-        <v>28</v>
-      </c>
-      <c r="C50" s="121">
+      <c r="B50" s="120" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="121" t="str">
         <f>IF(proforma!C60&lt;&gt;"",(proforma!C60),"")</f>
+        <v/>
       </c>
       <c r="D50" s="120"/>
       <c r="E50" s="122"/>
       <c r="F50" s="122"/>
     </row>
-    <row r="51" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="76"/>
       <c r="B51" s="76"/>
       <c r="C51" s="76"/>
@@ -5123,50 +5362,50 @@
       <c r="E51" s="78"/>
       <c r="F51" s="78"/>
     </row>
-    <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="76"/>
-      <c r="B52" t="s" s="123">
-        <v>30</v>
+      <c r="B52" s="123" t="s">
+        <v>29</v>
       </c>
       <c r="C52" s="124"/>
       <c r="D52" s="124"/>
       <c r="E52" s="78"/>
       <c r="F52" s="78"/>
     </row>
-    <row r="53" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="76"/>
-      <c r="B53" t="s" s="124">
-        <v>31</v>
+      <c r="B53" s="124" t="s">
+        <v>30</v>
       </c>
       <c r="C53" s="124"/>
       <c r="D53" s="125"/>
       <c r="E53" s="126"/>
-      <c r="F53" t="s" s="127">
+      <c r="F53" s="127" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="76"/>
+      <c r="B54" s="124" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="76"/>
-      <c r="B54" t="s" s="124">
-        <v>33</v>
       </c>
       <c r="C54" s="124"/>
       <c r="D54" s="125"/>
       <c r="E54" s="126"/>
-      <c r="F54" t="s" s="127">
+      <c r="F54" s="127" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="76"/>
+      <c r="B55" s="124" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="76"/>
-      <c r="B55" t="s" s="124">
-        <v>35</v>
       </c>
       <c r="C55" s="124"/>
       <c r="D55" s="125"/>
       <c r="E55" s="126"/>
-      <c r="F55" t="s" s="127">
-        <v>108</v>
+      <c r="F55" s="127" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -5178,30 +5417,30 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr/>
+  <dimension ref="A4:E51"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="37.109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="26.5546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="6.88671875" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="11.44140625" style="7"/>
+    <col min="1" max="1" width="3.140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:5" ht="31.15" x14ac:dyDescent="0.6">
       <c r="A4" s="76"/>
       <c r="B4" s="76"/>
       <c r="C4" s="76"/>
       <c r="D4" s="76"/>
-      <c r="E4" t="s" s="128">
-        <v>48</v>
+      <c r="E4" s="128" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -5209,19 +5448,21 @@
       <c r="B5" s="76"/>
       <c r="C5" s="76"/>
       <c r="D5" s="76"/>
-      <c r="E5" s="79">
+      <c r="E5" s="79" t="str">
         <f>factura!E5</f>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>Nº:</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="76"/>
-      <c r="B6" t="s" s="129">
-        <v>47</v>
+      <c r="B6" s="129" t="s">
+        <v>45</v>
       </c>
       <c r="C6" s="76"/>
       <c r="D6" s="76"/>
-      <c r="E6" s="79">
+      <c r="E6" s="79" t="str">
         <f>factura!E6</f>
+        <v>Nº: 100 m2 PISCINAS</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -5233,45 +5474,45 @@
     </row>
     <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A8" s="76"/>
-      <c r="B8" t="s" s="130">
-        <v>49</v>
-      </c>
-      <c r="C8" t="s" s="79">
-        <v>105</v>
-      </c>
-      <c r="D8" t="s" s="130">
-        <v>57</v>
-      </c>
-      <c r="E8" t="s" s="79">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="130" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="79" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="130" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="79" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="76"/>
-      <c r="B9" t="s" s="130">
-        <v>50</v>
+      <c r="B9" s="130" t="s">
+        <v>48</v>
       </c>
       <c r="C9" s="76"/>
       <c r="D9" s="76"/>
       <c r="E9" s="78"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="76"/>
       <c r="B10" s="130"/>
       <c r="C10" s="76"/>
       <c r="D10" s="76"/>
       <c r="E10" s="78"/>
     </row>
-    <row r="11" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" ht="23.45" x14ac:dyDescent="0.45">
       <c r="A11" s="76"/>
-      <c r="B11" t="s" s="82">
-        <v>51</v>
+      <c r="B11" s="82" t="s">
+        <v>49</v>
       </c>
       <c r="C11" s="76"/>
       <c r="D11" s="76"/>
       <c r="E11" s="78"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="76"/>
       <c r="B12" s="130"/>
       <c r="C12" s="76"/>
@@ -5280,70 +5521,75 @@
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="76"/>
-      <c r="B13" t="s" s="118">
-        <v>52</v>
+      <c r="B13" s="118" t="s">
+        <v>50</v>
       </c>
       <c r="C13" s="131">
         <f>pedido!K17</f>
+        <v>0</v>
       </c>
       <c r="D13" s="132"/>
       <c r="E13" s="133"/>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="76"/>
-      <c r="B14" t="s" s="118">
-        <v>93</v>
+      <c r="B14" s="118" t="s">
+        <v>91</v>
       </c>
       <c r="C14" s="131">
         <f>pedido!K15</f>
+        <v>0</v>
       </c>
       <c r="D14" s="132"/>
       <c r="E14" s="133"/>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="76"/>
-      <c r="B15" t="s" s="118">
-        <v>53</v>
+      <c r="B15" s="118" t="s">
+        <v>51</v>
       </c>
       <c r="C15" s="131">
         <f>pedido!K16</f>
+        <v>0</v>
       </c>
       <c r="D15" s="132"/>
       <c r="E15" s="133"/>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="76"/>
-      <c r="B16" t="s" s="130">
-        <v>54</v>
+      <c r="B16" s="130" t="s">
+        <v>52</v>
       </c>
       <c r="C16" s="134">
         <f>pedido!K18</f>
+        <v>0</v>
       </c>
       <c r="D16" s="111"/>
       <c r="E16" s="112"/>
     </row>
     <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="76"/>
-      <c r="B17" t="s" s="118">
-        <v>55</v>
-      </c>
-      <c r="C17" s="131">
+      <c r="B17" s="118" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="131" t="str">
         <f>pedido!K19</f>
+        <v>PAGADOS</v>
       </c>
       <c r="D17" s="132"/>
       <c r="E17" s="133"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="76"/>
       <c r="B18" s="130"/>
       <c r="C18" s="76"/>
       <c r="D18" s="76"/>
       <c r="E18" s="78"/>
     </row>
-    <row r="19" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" ht="23.45" x14ac:dyDescent="0.45">
       <c r="A19" s="76"/>
-      <c r="B19" t="s" s="82">
-        <v>46</v>
+      <c r="B19" s="82" t="s">
+        <v>44</v>
       </c>
       <c r="C19" s="79"/>
       <c r="D19" s="76"/>
@@ -5358,77 +5604,87 @@
     </row>
     <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="76"/>
-      <c r="B21" t="s" s="83">
-        <v>13</v>
-      </c>
-      <c r="C21" s="83">
+      <c r="B21" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="83" t="str">
         <f>pedido!K9</f>
-      </c>
-      <c r="D21" t="s" s="83">
+        <v>Suelos Epoxi 3D SC</v>
+      </c>
+      <c r="D21" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="84" t="str">
+        <f>pedido!M9</f>
+        <v>ACRILICA PISCINAS</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="76"/>
+      <c r="B22" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="83" t="str">
+        <f>pedido!K10</f>
+        <v>PISCINAS CON ENEKRIL PISCINAS</v>
+      </c>
+      <c r="D22" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="84">
-        <f>pedido!M9</f>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A22" s="76"/>
-      <c r="B22" t="s" s="83">
-        <v>12</v>
-      </c>
-      <c r="C22" s="83">
-        <f>pedido!K10</f>
-      </c>
-      <c r="D22" t="s" s="83">
-        <v>18</v>
-      </c>
-      <c r="E22" s="84">
+      <c r="E22" s="84" t="str">
         <f>pedido!M10</f>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="76"/>
-      <c r="B23" t="s" s="83">
-        <v>14</v>
-      </c>
-      <c r="C23" s="83">
+      <c r="B23" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="83" t="str">
         <f>pedido!K11</f>
-      </c>
-      <c r="D23" t="s" s="83">
-        <v>19</v>
-      </c>
-      <c r="E23" s="84">
+        <v>Torrevieja</v>
+      </c>
+      <c r="D23" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="84" t="str">
         <f>IF(proforma!E10&lt;&gt;"",(proforma!E10),"")</f>
+        <v>Alicante</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="76"/>
-      <c r="B24" t="s" s="83">
-        <v>15</v>
-      </c>
-      <c r="C24" s="83">
+      <c r="B24" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="83" t="str">
         <f>pedido!K12</f>
-      </c>
-      <c r="D24" t="s" s="83">
-        <v>20</v>
-      </c>
-      <c r="E24" s="84">
+        <v>ENEKRIL PISCINAS</v>
+      </c>
+      <c r="D24" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="84" t="str">
         <f>pedido!M12</f>
+        <v>627 69 68 58</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="76"/>
-      <c r="B25" t="s" s="83">
-        <v>16</v>
-      </c>
-      <c r="C25" s="83">
+      <c r="B25" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="83" t="str">
         <f>pedido!K13</f>
-      </c>
-      <c r="D25" t="s" s="83">
-        <v>21</v>
-      </c>
-      <c r="E25" s="84">
+        <v>Jesús Jaramillo</v>
+      </c>
+      <c r="D25" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="84" t="str">
         <f>pedido!M13</f>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -5438,10 +5694,10 @@
       <c r="D26" s="92"/>
       <c r="E26" s="93"/>
     </row>
-    <row r="27" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" ht="23.45" x14ac:dyDescent="0.45">
       <c r="A27" s="76"/>
-      <c r="B27" t="s" s="135">
-        <v>56</v>
+      <c r="B27" s="135" t="s">
+        <v>54</v>
       </c>
       <c r="C27" s="136"/>
       <c r="D27" s="137"/>
@@ -5454,124 +5710,124 @@
       <c r="D28" s="99"/>
       <c r="E28" s="100"/>
     </row>
-    <row r="29" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="17.45" x14ac:dyDescent="0.3">
       <c r="A29" s="76"/>
-      <c r="B29" t="s" s="141">
-        <v>43</v>
+      <c r="B29" s="141" t="s">
+        <v>41</v>
       </c>
       <c r="C29" s="142"/>
       <c r="D29" s="99"/>
       <c r="E29" s="100"/>
     </row>
-    <row r="30" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="76"/>
-      <c r="B30" t="s" s="141">
-        <v>44</v>
+      <c r="B30" s="141" t="s">
+        <v>42</v>
       </c>
       <c r="C30" s="142"/>
       <c r="D30" s="99"/>
       <c r="E30" s="100"/>
     </row>
-    <row r="31" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="76"/>
-      <c r="B31" t="s" s="141">
-        <v>45</v>
+      <c r="B31" s="141" t="s">
+        <v>43</v>
       </c>
       <c r="C31" s="143"/>
       <c r="D31" s="99"/>
       <c r="E31" s="100"/>
     </row>
-    <row r="32" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="17.45" x14ac:dyDescent="0.3">
       <c r="A32" s="76"/>
       <c r="B32" s="141"/>
       <c r="C32" s="143"/>
       <c r="D32" s="99"/>
       <c r="E32" s="100"/>
     </row>
-    <row r="33" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="17.45" x14ac:dyDescent="0.3">
       <c r="A33" s="76"/>
       <c r="B33" s="141"/>
       <c r="C33" s="143"/>
       <c r="D33" s="99"/>
       <c r="E33" s="100"/>
     </row>
-    <row r="34" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="17.45" x14ac:dyDescent="0.3">
       <c r="A34" s="76"/>
       <c r="B34" s="141"/>
       <c r="C34" s="143"/>
       <c r="D34" s="99"/>
       <c r="E34" s="100"/>
     </row>
-    <row r="35" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="17.45" x14ac:dyDescent="0.3">
       <c r="A35" s="76"/>
       <c r="B35" s="141"/>
       <c r="C35" s="143"/>
       <c r="D35" s="99"/>
       <c r="E35" s="100"/>
     </row>
-    <row r="36" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="17.45" x14ac:dyDescent="0.3">
       <c r="A36" s="76"/>
       <c r="B36" s="141"/>
       <c r="C36" s="143"/>
       <c r="D36" s="99"/>
       <c r="E36" s="100"/>
     </row>
-    <row r="37" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="17.45" x14ac:dyDescent="0.3">
       <c r="A37" s="76"/>
       <c r="B37" s="141"/>
       <c r="C37" s="143"/>
       <c r="D37" s="99"/>
       <c r="E37" s="100"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="76"/>
       <c r="B38" s="144"/>
       <c r="C38" s="144"/>
       <c r="D38" s="145"/>
       <c r="E38" s="146"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="76"/>
-      <c r="B39" t="s" s="98">
-        <v>58</v>
+      <c r="B39" s="98" t="s">
+        <v>56</v>
       </c>
       <c r="C39" s="98"/>
       <c r="D39" s="99"/>
       <c r="E39" s="100"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="76"/>
-      <c r="B40" t="s" s="147">
-        <v>59</v>
+      <c r="B40" s="147" t="s">
+        <v>57</v>
       </c>
       <c r="C40" s="98"/>
       <c r="D40" s="99"/>
       <c r="E40" s="100"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="76"/>
-      <c r="B41" t="s" s="98">
-        <v>60</v>
+      <c r="B41" s="98" t="s">
+        <v>58</v>
       </c>
       <c r="C41" s="98"/>
       <c r="D41" s="99"/>
       <c r="E41" s="100"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="76"/>
       <c r="B42" s="98"/>
       <c r="C42" s="98"/>
       <c r="D42" s="99"/>
       <c r="E42" s="100"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="76"/>
-      <c r="B43" t="s" s="98">
-        <v>61</v>
+      <c r="B43" s="98" t="s">
+        <v>59</v>
       </c>
       <c r="C43" s="98"/>
-      <c r="D43" t="s" s="99">
-        <v>62</v>
+      <c r="D43" s="99" t="s">
+        <v>60</v>
       </c>
       <c r="E43" s="100"/>
     </row>
@@ -5579,26 +5835,26 @@
       <c r="A44" s="76"/>
       <c r="B44" s="98"/>
       <c r="C44" s="98"/>
-      <c r="D44" t="s" s="148">
-        <v>63</v>
+      <c r="D44" s="148" t="s">
+        <v>61</v>
       </c>
       <c r="E44" s="100"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="76"/>
       <c r="B45" s="98"/>
       <c r="C45" s="98"/>
       <c r="D45" s="99"/>
       <c r="E45" s="100"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="76"/>
       <c r="B46" s="98"/>
       <c r="C46" s="98"/>
       <c r="D46" s="99"/>
       <c r="E46" s="100"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="76"/>
       <c r="B47" s="98"/>
       <c r="C47" s="130"/>
@@ -5607,44 +5863,44 @@
     </row>
     <row r="48" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="76"/>
-      <c r="B48" t="s" s="123">
-        <v>30</v>
+      <c r="B48" s="123" t="s">
+        <v>29</v>
       </c>
       <c r="C48" s="124"/>
       <c r="D48" s="124"/>
       <c r="E48" s="149"/>
     </row>
-    <row r="49" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="76"/>
-      <c r="B49" t="s" s="124">
-        <v>31</v>
+      <c r="B49" s="124" t="s">
+        <v>30</v>
       </c>
       <c r="C49" s="124"/>
       <c r="D49" s="125"/>
-      <c r="E49" t="s" s="127">
+      <c r="E49" s="127" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="76"/>
+      <c r="B50" s="124" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="76"/>
-      <c r="B50" t="s" s="124">
-        <v>33</v>
       </c>
       <c r="C50" s="124"/>
       <c r="D50" s="125"/>
-      <c r="E50" t="s" s="127">
-        <v>34</v>
+      <c r="E50" s="127" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="76"/>
-      <c r="B51" t="s" s="124">
-        <v>35</v>
+      <c r="B51" s="124" t="s">
+        <v>34</v>
       </c>
       <c r="C51" s="124"/>
       <c r="D51" s="125"/>
-      <c r="E51" t="s" s="127">
-        <v>108</v>
+      <c r="E51" s="127" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -5659,18 +5915,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A7:H65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="31.44140625" customWidth="1"/>
-    <col min="7" max="7" width="30.44140625" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="124"/>
       <c r="B7" s="124"/>
       <c r="C7" s="124"/>
@@ -5684,23 +5941,24 @@
       <c r="B8" s="190"/>
       <c r="C8" s="191"/>
       <c r="D8" s="191"/>
-      <c r="E8" t="s" s="191">
-        <v>64</v>
+      <c r="E8" s="191" t="s">
+        <v>62</v>
       </c>
       <c r="F8" s="190"/>
       <c r="G8" s="192"/>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A9" t="s" s="150">
-        <v>65</v>
+      <c r="A9" s="150" t="s">
+        <v>63</v>
       </c>
       <c r="B9" s="151"/>
       <c r="C9" s="151"/>
       <c r="D9" s="151"/>
       <c r="E9" s="151"/>
       <c r="F9" s="152"/>
-      <c r="G9" s="153">
+      <c r="G9" s="153" t="str">
         <f>factura!E5</f>
+        <v>Nº:</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="21" x14ac:dyDescent="0.4">
@@ -5710,28 +5968,31 @@
       <c r="D10" s="155"/>
       <c r="E10" s="155"/>
       <c r="F10" s="156"/>
-      <c r="G10" s="153">
+      <c r="G10" s="153" t="str">
         <f>factura!E6</f>
+        <v>Nº: 100 m2 PISCINAS</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="157">
-        <v>66</v>
+      <c r="A11" s="157" t="s">
+        <v>64</v>
       </c>
       <c r="B11" s="151"/>
       <c r="C11" s="151"/>
       <c r="D11" s="158"/>
       <c r="E11" s="83"/>
-      <c r="F11" s="83">
+      <c r="F11" s="83" t="str">
         <f>'Hoja Entrega Transporte'!C23</f>
-      </c>
-      <c r="G11" s="159">
+        <v>Torrevieja</v>
+      </c>
+      <c r="G11" s="159" t="str">
         <f>'Hoja Entrega Transporte'!E23</f>
+        <v>Alicante</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" t="s" s="160">
-        <v>81</v>
+      <c r="A12" s="160" t="s">
+        <v>79</v>
       </c>
       <c r="B12" s="161"/>
       <c r="C12" s="161"/>
@@ -5741,8 +6002,8 @@
       <c r="G12" s="164"/>
     </row>
     <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" t="s" s="160">
-        <v>67</v>
+      <c r="A13" s="160" t="s">
+        <v>65</v>
       </c>
       <c r="B13" s="161"/>
       <c r="C13" s="161"/>
@@ -5751,7 +6012,7 @@
       <c r="F13" s="163"/>
       <c r="G13" s="164"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="124"/>
       <c r="B14" s="124"/>
       <c r="C14" s="124"/>
@@ -5760,9 +6021,9 @@
       <c r="F14" s="124"/>
       <c r="G14" s="124"/>
     </row>
-    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" t="s" s="165">
-        <v>68</v>
+    <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="165" t="s">
+        <v>66</v>
       </c>
       <c r="B15" s="124"/>
       <c r="C15" s="124"/>
@@ -5771,9 +6032,9 @@
       <c r="F15" s="124"/>
       <c r="G15" s="124"/>
     </row>
-    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" t="s" s="165">
-        <v>69</v>
+    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="165" t="s">
+        <v>67</v>
       </c>
       <c r="B16" s="124"/>
       <c r="C16" s="124"/>
@@ -5791,7 +6052,7 @@
       <c r="F17" s="124"/>
       <c r="G17" s="124"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="124"/>
       <c r="B18" s="124"/>
       <c r="C18" s="124"/>
@@ -5801,8 +6062,8 @@
       <c r="G18" s="124"/>
     </row>
     <row r="19" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A19" t="s" s="193">
-        <v>76</v>
+      <c r="A19" s="193" t="s">
+        <v>74</v>
       </c>
       <c r="B19" s="194"/>
       <c r="C19" s="194"/>
@@ -5811,7 +6072,7 @@
       <c r="F19" s="194"/>
       <c r="G19" s="194"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="124"/>
       <c r="B20" s="124"/>
       <c r="C20" s="124"/>
@@ -5820,9 +6081,9 @@
       <c r="F20" s="124"/>
       <c r="G20" s="124"/>
     </row>
-    <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A21" t="s" s="166">
-        <v>70</v>
+    <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A21" s="166" t="s">
+        <v>68</v>
       </c>
       <c r="B21" s="166"/>
       <c r="C21" s="167"/>
@@ -5832,9 +6093,9 @@
       <c r="G21" s="124"/>
       <c r="H21" s="37"/>
     </row>
-    <row r="22" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A22" t="s" s="166">
-        <v>71</v>
+    <row r="22" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A22" s="166" t="s">
+        <v>69</v>
       </c>
       <c r="B22" s="166"/>
       <c r="C22" s="167"/>
@@ -5854,9 +6115,9 @@
       <c r="G23" s="124"/>
       <c r="H23" s="37"/>
     </row>
-    <row r="24" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A24" t="s" s="166">
-        <v>72</v>
+    <row r="24" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A24" s="166" t="s">
+        <v>70</v>
       </c>
       <c r="B24" s="166"/>
       <c r="C24" s="167"/>
@@ -5877,8 +6138,8 @@
       <c r="H25" s="37"/>
     </row>
     <row r="26" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A26" t="s" s="166">
-        <v>92</v>
+      <c r="A26" s="166" t="s">
+        <v>90</v>
       </c>
       <c r="B26" s="166"/>
       <c r="C26" s="167"/>
@@ -5888,10 +6149,10 @@
       <c r="G26" s="124"/>
       <c r="H26" s="37"/>
     </row>
-    <row r="27" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="167"/>
-      <c r="B27" t="s" s="166">
-        <v>73</v>
+      <c r="B27" s="166" t="s">
+        <v>71</v>
       </c>
       <c r="C27" s="167"/>
       <c r="D27" s="167"/>
@@ -5902,8 +6163,8 @@
     </row>
     <row r="28" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A28" s="166"/>
-      <c r="B28" t="s" s="166">
-        <v>79</v>
+      <c r="B28" s="166" t="s">
+        <v>77</v>
       </c>
       <c r="C28" s="167"/>
       <c r="D28" s="167"/>
@@ -5914,8 +6175,8 @@
     </row>
     <row r="29" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A29" s="166"/>
-      <c r="B29" t="s" s="166">
-        <v>80</v>
+      <c r="B29" s="166" t="s">
+        <v>78</v>
       </c>
       <c r="C29" s="167"/>
       <c r="D29" s="167"/>
@@ -5924,9 +6185,9 @@
       <c r="G29" s="124"/>
       <c r="H29" s="37"/>
     </row>
-    <row r="30" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A30" t="s" s="166">
-        <v>77</v>
+    <row r="30" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A30" s="166" t="s">
+        <v>75</v>
       </c>
       <c r="B30" s="166"/>
       <c r="C30" s="167"/>
@@ -5936,9 +6197,9 @@
       <c r="G30" s="124"/>
       <c r="H30" s="37"/>
     </row>
-    <row r="31" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A31" t="s" s="167">
-        <v>78</v>
+    <row r="31" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A31" s="167" t="s">
+        <v>76</v>
       </c>
       <c r="B31" s="167"/>
       <c r="C31" s="167"/>
@@ -5956,7 +6217,7 @@
       <c r="F32" s="167"/>
       <c r="G32" s="124"/>
     </row>
-    <row r="33" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A33" s="167"/>
       <c r="B33" s="167"/>
       <c r="C33" s="167"/>
@@ -5965,7 +6226,7 @@
       <c r="F33" s="167"/>
       <c r="G33" s="124"/>
     </row>
-    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="165"/>
       <c r="B34" s="124"/>
       <c r="C34" s="124"/>
@@ -5974,20 +6235,20 @@
       <c r="F34" s="124"/>
       <c r="G34" s="124"/>
     </row>
-    <row r="35" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A35" t="s" s="167">
-        <v>88</v>
+    <row r="35" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="A35" s="167" t="s">
+        <v>86</v>
       </c>
       <c r="B35" s="167"/>
       <c r="C35" s="167"/>
       <c r="D35" s="167"/>
       <c r="E35" s="167"/>
-      <c r="F35" t="s" s="167">
-        <v>91</v>
+      <c r="F35" s="167" t="s">
+        <v>89</v>
       </c>
       <c r="G35" s="167"/>
     </row>
-    <row r="36" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A36" s="167"/>
       <c r="B36" s="167"/>
       <c r="C36" s="167"/>
@@ -5996,7 +6257,7 @@
       <c r="F36" s="167"/>
       <c r="G36" s="167"/>
     </row>
-    <row r="37" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A37" s="167"/>
       <c r="B37" s="167"/>
       <c r="C37" s="167"/>
@@ -6005,9 +6266,9 @@
       <c r="F37" s="167"/>
       <c r="G37" s="167"/>
     </row>
-    <row r="38" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A38" t="s" s="167">
-        <v>89</v>
+    <row r="38" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="A38" s="167" t="s">
+        <v>87</v>
       </c>
       <c r="B38" s="167"/>
       <c r="C38" s="167"/>
@@ -6016,9 +6277,9 @@
       <c r="F38" s="167"/>
       <c r="G38" s="167"/>
     </row>
-    <row r="39" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A39" t="s" s="167">
-        <v>90</v>
+    <row r="39" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="A39" s="167" t="s">
+        <v>88</v>
       </c>
       <c r="B39" s="167"/>
       <c r="C39" s="167"/>
@@ -6027,7 +6288,7 @@
       <c r="F39" s="167"/>
       <c r="G39" s="167"/>
     </row>
-    <row r="40" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A40" s="167"/>
       <c r="B40" s="167"/>
       <c r="C40" s="167"/>
@@ -6036,7 +6297,7 @@
       <c r="F40" s="167"/>
       <c r="G40" s="167"/>
     </row>
-    <row r="41" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A41" s="167"/>
       <c r="B41" s="167"/>
       <c r="C41" s="167"/>
@@ -6045,7 +6306,7 @@
       <c r="F41" s="167"/>
       <c r="G41" s="167"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="124"/>
       <c r="B42" s="124"/>
       <c r="C42" s="124"/>
@@ -6054,9 +6315,9 @@
       <c r="F42" s="124"/>
       <c r="G42" s="124"/>
     </row>
-    <row r="43" spans="1:7" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A43" t="s" s="195">
-        <v>82</v>
+    <row r="43" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A43" s="195" t="s">
+        <v>80</v>
       </c>
       <c r="B43" s="196"/>
       <c r="C43" s="196"/>
@@ -6065,64 +6326,64 @@
       <c r="F43" s="196"/>
       <c r="G43" s="197"/>
     </row>
-    <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A44" t="s" s="168">
-        <v>83</v>
+    <row r="44" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="168" t="s">
+        <v>81</v>
       </c>
       <c r="B44" s="169"/>
-      <c r="C44" t="s" s="168">
-        <v>84</v>
+      <c r="C44" s="168" t="s">
+        <v>82</v>
       </c>
       <c r="D44" s="169"/>
-      <c r="E44" t="s" s="170">
-        <v>74</v>
+      <c r="E44" s="170" t="s">
+        <v>72</v>
       </c>
       <c r="F44" s="171"/>
       <c r="G44" s="169"/>
     </row>
-    <row r="45" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" t="s" s="172">
-        <v>85</v>
+    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="172" t="s">
+        <v>83</v>
       </c>
       <c r="B45" s="173"/>
-      <c r="C45" t="s" s="172">
-        <v>75</v>
+      <c r="C45" s="172" t="s">
+        <v>73</v>
       </c>
       <c r="D45" s="173"/>
-      <c r="E45" t="s" s="174">
-        <v>43</v>
+      <c r="E45" s="174" t="s">
+        <v>41</v>
       </c>
       <c r="F45" s="175"/>
       <c r="G45" s="176"/>
     </row>
-    <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="172"/>
       <c r="B46" s="173"/>
       <c r="C46" s="172"/>
       <c r="D46" s="173"/>
-      <c r="E46" t="s" s="174">
-        <v>86</v>
+      <c r="E46" s="174" t="s">
+        <v>84</v>
       </c>
       <c r="F46" s="175"/>
       <c r="G46" s="176"/>
     </row>
-    <row r="47" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="177"/>
       <c r="B47" s="178"/>
       <c r="C47" s="177"/>
       <c r="D47" s="178"/>
-      <c r="E47" t="s" s="179">
-        <v>87</v>
+      <c r="E47" s="179" t="s">
+        <v>85</v>
       </c>
       <c r="F47" s="180"/>
       <c r="G47" s="181"/>
     </row>
-    <row r="59" ht="54" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="54" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="75" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
@@ -6132,22 +6393,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="124"/>
       <c r="B1" s="124"/>
       <c r="C1" s="124"/>
@@ -6156,207 +6417,222 @@
     </row>
     <row r="2" spans="1:5" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A2" s="124"/>
-      <c r="B2" t="s" s="182">
-        <v>11</v>
+      <c r="B2" s="182" t="s">
+        <v>10</v>
       </c>
       <c r="C2" s="79"/>
       <c r="D2" s="76"/>
       <c r="E2" s="78"/>
     </row>
-    <row r="3" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="23.45" x14ac:dyDescent="0.45">
       <c r="A3" s="124"/>
-      <c r="B3" t="s" s="183">
+      <c r="B3" s="183" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="184" t="str">
+        <f>pedido!K9</f>
+        <v>Suelos Epoxi 3D SC</v>
+      </c>
+      <c r="D3" s="183" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="185" t="str">
+        <f>pedido!M9</f>
+        <v>ACRILICA PISCINAS</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="124"/>
+      <c r="B4" s="183" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="184" t="str">
+        <f>pedido!K10</f>
+        <v>PISCINAS CON ENEKRIL PISCINAS</v>
+      </c>
+      <c r="D4" s="183" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="185" t="str">
+        <f>pedido!M10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="23.45" x14ac:dyDescent="0.45">
+      <c r="A5" s="124"/>
+      <c r="B5" s="183" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="184">
-        <f>pedido!K9</f>
-      </c>
-      <c r="D3" t="s" s="183">
-        <v>17</v>
-      </c>
-      <c r="E3" s="185">
-        <f>pedido!M9</f>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A4" s="124"/>
-      <c r="B4" t="s" s="183">
-        <v>12</v>
-      </c>
-      <c r="C4" s="184">
-        <f>pedido!K10</f>
-      </c>
-      <c r="D4" t="s" s="183">
+      <c r="C5" s="184" t="str">
+        <f>pedido!K11</f>
+        <v>Torrevieja</v>
+      </c>
+      <c r="D5" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="185">
-        <f>pedido!M10</f>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A5" s="124"/>
-      <c r="B5" t="s" s="183">
+      <c r="E5" s="185" t="str">
+        <f>pedido!M11</f>
+        <v>Alicante</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="23.45" x14ac:dyDescent="0.45">
+      <c r="A6" s="124"/>
+      <c r="B6" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="184">
-        <f>pedido!K11</f>
-      </c>
-      <c r="D5" t="s" s="183">
+      <c r="C6" s="184" t="str">
+        <f>pedido!K12</f>
+        <v>ENEKRIL PISCINAS</v>
+      </c>
+      <c r="D6" s="183" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="185">
-        <f>pedido!M11</f>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A6" s="124"/>
-      <c r="B6" t="s" s="183">
+      <c r="E6" s="185" t="str">
+        <f>pedido!M12</f>
+        <v>627 69 68 58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="23.45" x14ac:dyDescent="0.45">
+      <c r="A7" s="124"/>
+      <c r="B7" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="184">
-        <f>pedido!K12</f>
-      </c>
-      <c r="D6" t="s" s="183">
+      <c r="C7" s="184" t="str">
+        <f>pedido!K13</f>
+        <v>Jesús Jaramillo</v>
+      </c>
+      <c r="D7" s="183" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="185">
-        <f>pedido!M12</f>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A7" s="124"/>
-      <c r="B7" t="s" s="183">
-        <v>16</v>
-      </c>
-      <c r="C7" s="184">
-        <f>pedido!K13</f>
-      </c>
-      <c r="D7" t="s" s="183">
-        <v>21</v>
-      </c>
-      <c r="E7" s="185">
+      <c r="E7" s="185" t="str">
         <f>pedido!M13</f>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="23.45" x14ac:dyDescent="0.45">
       <c r="A8" s="124"/>
       <c r="B8" s="186"/>
       <c r="C8" s="186"/>
       <c r="D8" s="186"/>
       <c r="E8" s="186"/>
     </row>
-    <row r="9" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" ht="23.45" x14ac:dyDescent="0.45">
       <c r="A9" s="124"/>
-      <c r="B9" t="s" s="186">
-        <v>48</v>
-      </c>
-      <c r="C9" s="186">
+      <c r="B9" s="186" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="186" t="str">
         <f>factura!E5</f>
-      </c>
-      <c r="D9" s="186">
+        <v>Nº:</v>
+      </c>
+      <c r="D9" s="186" t="str">
         <f>factura!E6</f>
+        <v>Nº: 100 m2 PISCINAS</v>
       </c>
       <c r="E9" s="186"/>
     </row>
-    <row r="10" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" ht="23.45" x14ac:dyDescent="0.45">
       <c r="A10" s="124"/>
       <c r="B10" s="186"/>
       <c r="C10" s="186"/>
       <c r="D10" s="186"/>
       <c r="E10" s="186"/>
     </row>
-    <row r="11" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A11" s="124"/>
-      <c r="B11" t="s" s="187">
-        <v>39</v>
+      <c r="B11" s="187" t="s">
+        <v>37</v>
       </c>
       <c r="C11" s="188">
         <f>'Hoja Entrega Transporte'!C13</f>
-      </c>
-      <c r="D11" t="s" s="187">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="D11" s="187" t="s">
+        <v>38</v>
       </c>
       <c r="E11" s="188"/>
     </row>
-    <row r="12" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" ht="23.45" x14ac:dyDescent="0.45">
       <c r="A12" s="124"/>
       <c r="B12" s="186"/>
       <c r="C12" s="186"/>
       <c r="D12" s="186"/>
       <c r="E12" s="186"/>
     </row>
-    <row r="13" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" ht="23.45" x14ac:dyDescent="0.45">
       <c r="A13" s="124"/>
-      <c r="B13" t="s" s="186">
-        <v>42</v>
+      <c r="B13" s="186" t="s">
+        <v>40</v>
       </c>
       <c r="C13" s="188">
         <f>'Hoja Entrega Transporte'!C14</f>
-      </c>
-      <c r="D13" t="s" s="186">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="D13" s="186" t="s">
+        <v>39</v>
       </c>
       <c r="E13" s="188">
         <f>'Hoja Entrega Transporte'!C15</f>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="124"/>
       <c r="B14" s="124"/>
       <c r="C14" s="124"/>
       <c r="D14" s="124"/>
       <c r="E14" s="124"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="124"/>
       <c r="B15" s="124"/>
       <c r="C15" s="124"/>
       <c r="D15" s="124"/>
       <c r="E15" s="124"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="124"/>
       <c r="B16" s="124"/>
       <c r="C16" s="124"/>
       <c r="D16" s="124"/>
       <c r="E16" s="124"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="124"/>
       <c r="B17" s="124"/>
       <c r="C17" s="124"/>
       <c r="D17" s="124"/>
       <c r="E17" s="124"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="124"/>
       <c r="B18" s="124"/>
       <c r="C18" s="124"/>
       <c r="D18" s="124"/>
       <c r="E18" s="124"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="124"/>
       <c r="B19" s="124"/>
       <c r="C19" s="124"/>
       <c r="D19" s="124"/>
       <c r="E19" s="124"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="124"/>
       <c r="B20" s="124"/>
       <c r="C20" s="124"/>
       <c r="D20" s="124"/>
       <c r="E20" s="124"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="124"/>
       <c r="B21" s="124"/>
       <c r="C21" s="124"/>
       <c r="D21" s="124"/>
       <c r="E21" s="124"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="124"/>
       <c r="B22" s="124"/>
       <c r="C22" s="124"/>
